--- a/Datos/datos grafo salas.xlsx
+++ b/Datos/datos grafo salas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="279">
   <si>
     <t>nodo1</t>
   </si>
@@ -46,7 +46,7 @@
     <t>AE101</t>
   </si>
   <si>
-    <t>CAMPUS</t>
+    <t>CAMPUSAP</t>
   </si>
   <si>
     <t>black</t>
@@ -220,6 +220,9 @@
     <t>AG3</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>AG6</t>
   </si>
   <si>
@@ -395,9 +398,6 @@
   </si>
   <si>
     <t>N13-A</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>N14</t>
@@ -1179,6 +1179,9 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1190,6 +1193,9 @@
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1201,6 +1207,9 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C6" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1212,6 +1221,9 @@
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C7" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1223,6 +1235,9 @@
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C8" s="1">
+        <v>100.0</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1234,6 +1249,9 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C9" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1245,6 +1263,9 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C10" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1256,6 +1277,9 @@
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C11" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1267,6 +1291,9 @@
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C12" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1278,6 +1305,9 @@
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C13" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1373,6 +1403,9 @@
       <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="C20" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1384,6 +1417,9 @@
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="C21" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1535,6 +1571,9 @@
       <c r="B32" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="C32" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D32" s="1" t="s">
         <v>18</v>
       </c>
@@ -1546,6 +1585,9 @@
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C33" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D33" s="1" t="s">
         <v>18</v>
       </c>
@@ -1557,6 +1599,9 @@
       <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="C34" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
@@ -1568,6 +1613,9 @@
       <c r="B35" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C35" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D35" s="1" t="s">
         <v>18</v>
       </c>
@@ -1579,6 +1627,9 @@
       <c r="B36" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="C36" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D36" s="1" t="s">
         <v>18</v>
       </c>
@@ -1590,6 +1641,9 @@
       <c r="B37" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C37" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D37" s="1" t="s">
         <v>18</v>
       </c>
@@ -1601,6 +1655,9 @@
       <c r="B38" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="C38" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D38" s="1" t="s">
         <v>18</v>
       </c>
@@ -1612,6 +1669,9 @@
       <c r="B39" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="C39" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D39" s="1" t="s">
         <v>18</v>
       </c>
@@ -1623,6 +1683,9 @@
       <c r="B40" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C40" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D40" s="1" t="s">
         <v>18</v>
       </c>
@@ -1634,6 +1697,9 @@
       <c r="B41" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="C41" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D41" s="1" t="s">
         <v>18</v>
       </c>
@@ -1645,6 +1711,9 @@
       <c r="B42" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="C42" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D42" s="1" t="s">
         <v>18</v>
       </c>
@@ -1656,6 +1725,9 @@
       <c r="B43" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="C43" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D43" s="1" t="s">
         <v>18</v>
       </c>
@@ -1667,6 +1739,9 @@
       <c r="B44" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="C44" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D44" s="1" t="s">
         <v>18</v>
       </c>
@@ -1678,6 +1753,9 @@
       <c r="B45" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="C45" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D45" s="1" t="s">
         <v>18</v>
       </c>
@@ -1689,6 +1767,9 @@
       <c r="B46" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="C46" s="1">
+        <v>100.0</v>
+      </c>
       <c r="D46" s="1" t="s">
         <v>12</v>
       </c>
@@ -1700,6 +1781,9 @@
       <c r="B47" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="C47" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D47" s="1" t="s">
         <v>51</v>
       </c>
@@ -1711,6 +1795,9 @@
       <c r="B48" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="C48" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D48" s="1" t="s">
         <v>51</v>
       </c>
@@ -1722,6 +1809,9 @@
       <c r="B49" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="C49" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D49" s="1" t="s">
         <v>51</v>
       </c>
@@ -1733,6 +1823,9 @@
       <c r="B50" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="C50" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1744,6 +1837,9 @@
       <c r="B51" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="C51" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D51" s="1" t="s">
         <v>51</v>
       </c>
@@ -1755,6 +1851,9 @@
       <c r="B52" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="C52" s="1">
+        <v>100.0</v>
+      </c>
       <c r="D52" s="1" t="s">
         <v>12</v>
       </c>
@@ -1766,6 +1865,9 @@
       <c r="B53" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="C53" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D53" s="1" t="s">
         <v>51</v>
       </c>
@@ -1777,6 +1879,9 @@
       <c r="B54" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="C54" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D54" s="1" t="s">
         <v>51</v>
       </c>
@@ -1788,6 +1893,9 @@
       <c r="B55" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="C55" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D55" s="1" t="s">
         <v>51</v>
       </c>
@@ -1799,6 +1907,9 @@
       <c r="B56" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="C56" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D56" s="1" t="s">
         <v>51</v>
       </c>
@@ -1810,6 +1921,9 @@
       <c r="B57" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="C57" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D57" s="1" t="s">
         <v>51</v>
       </c>
@@ -1821,6 +1935,9 @@
       <c r="B58" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="C58" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1843,6 +1960,9 @@
       <c r="B60" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="C60" s="1">
+        <v>100.0</v>
+      </c>
       <c r="D60" s="1" t="s">
         <v>12</v>
       </c>
@@ -1854,6 +1974,9 @@
       <c r="B61" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="C61" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D61" s="1" t="s">
         <v>67</v>
       </c>
@@ -1865,6 +1988,9 @@
       <c r="B62" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="C62" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D62" s="1" t="s">
         <v>67</v>
       </c>
@@ -1874,7 +2000,10 @@
         <v>68</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>11</v>
+        <v>69</v>
+      </c>
+      <c r="C63" s="1">
+        <v>100.0</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>12</v>
@@ -1885,7 +2014,10 @@
         <v>68</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1.0</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>67</v>
@@ -1893,10 +2025,13 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1.0</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>67</v>
@@ -1904,10 +2039,13 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1.0</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>67</v>
@@ -1915,10 +2053,13 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1.0</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>67</v>
@@ -1926,18 +2067,21 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="C68" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D68" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>12</v>
@@ -1945,7 +2089,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>12</v>
@@ -1953,7 +2097,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>12</v>
@@ -1961,7 +2105,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>12</v>
@@ -1969,7 +2113,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>12</v>
@@ -1977,7 +2121,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>12</v>
@@ -1985,7 +2129,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>12</v>
@@ -1993,7 +2137,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>12</v>
@@ -2001,7 +2145,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>12</v>
@@ -2009,7 +2153,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>12</v>
@@ -2017,7 +2161,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>12</v>
@@ -2025,7 +2169,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>12</v>
@@ -2033,7 +2177,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>12</v>
@@ -2041,7 +2185,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>12</v>
@@ -2049,7 +2193,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>12</v>
@@ -2057,7 +2201,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>12</v>
@@ -2065,7 +2209,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>12</v>
@@ -2073,7 +2217,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>12</v>
@@ -2081,7 +2225,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>12</v>
@@ -2089,7 +2233,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>12</v>
@@ -2097,7 +2241,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>12</v>
@@ -2105,7 +2249,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>12</v>
@@ -2113,7 +2257,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>12</v>
@@ -2121,7 +2265,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>12</v>
@@ -2129,7 +2273,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>12</v>
@@ -2137,7 +2281,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>12</v>
@@ -2145,7 +2289,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>12</v>
@@ -2153,7 +2297,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>12</v>
@@ -2161,7 +2305,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>12</v>
@@ -2169,7 +2313,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>12</v>
@@ -2177,120 +2321,153 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1.0</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1.0</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="C102" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1.0</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>108</v>
+      <c r="C104" s="1">
+        <v>1.0</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>109</v>
+      <c r="C105" s="1">
+        <v>1.0</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1.0</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="C107" s="1">
+        <v>2.0</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2.0</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C109" s="1">
+        <v>100.0</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>12</v>
@@ -2298,98 +2475,125 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="C110" s="1">
+        <v>5.0</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1.0</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1.0</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>116</v>
+      <c r="C113" s="1">
+        <v>1.0</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C114" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1.0</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1.0</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1.0</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C118" s="1">
+        <v>100.0</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>12</v>
@@ -2397,88 +2601,100 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C120" s="1">
         <v>1.0</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C122" s="1">
         <v>1.0</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C123" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>126</v>
+      <c r="C124" s="1">
+        <v>5.0</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>128</v>
+        <v>69</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2.0</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126">
@@ -2486,13 +2702,13 @@
         <v>129</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C126" s="1">
         <v>1.0</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127">
@@ -2506,7 +2722,7 @@
         <v>1.0</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128">
@@ -2516,8 +2732,11 @@
       <c r="B128" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="C128" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D128" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129">
@@ -2527,6 +2746,9 @@
       <c r="B129" s="3" t="s">
         <v>133</v>
       </c>
+      <c r="C129" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D129" s="1" t="s">
         <v>12</v>
       </c>
@@ -2538,8 +2760,11 @@
       <c r="B130" s="2" t="s">
         <v>131</v>
       </c>
+      <c r="C130" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D130" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131">
@@ -2553,7 +2778,7 @@
         <v>1.0</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132">
@@ -2567,7 +2792,7 @@
         <v>1.0</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133">
@@ -2575,10 +2800,13 @@
         <v>137</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C133" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="134">
@@ -2588,8 +2816,11 @@
       <c r="B134" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="C134" s="1">
+        <v>4.0</v>
+      </c>
       <c r="D134" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="135">
@@ -2599,8 +2830,11 @@
       <c r="B135" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="C135" s="1">
+        <v>2.0</v>
+      </c>
       <c r="D135" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="136">
@@ -2608,10 +2842,13 @@
         <v>132</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C136" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="137">
@@ -2621,8 +2858,11 @@
       <c r="B137" s="2" t="s">
         <v>131</v>
       </c>
+      <c r="C137" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D137" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="138">
@@ -2636,7 +2876,7 @@
         <v>1.0</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="139">
@@ -2650,7 +2890,7 @@
         <v>1.0</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="140">
@@ -2664,7 +2904,7 @@
         <v>1.0</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="141">
@@ -2678,7 +2918,7 @@
         <v>1.0</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="142">
@@ -2692,7 +2932,7 @@
         <v>1.0</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="143">
@@ -2706,7 +2946,7 @@
         <v>1.0</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="144">
@@ -2714,10 +2954,13 @@
         <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C144" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="145">
@@ -2727,27 +2970,36 @@
       <c r="B145" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="C145" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D145" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>131</v>
+      <c r="B146" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C146" s="1">
+        <v>100.0</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>148</v>
+      <c r="A147" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1.0</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>12</v>
@@ -2755,10 +3007,10 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="C148" s="1">
         <v>1.0</v>
@@ -2769,42 +3021,43 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C149" s="1">
         <v>1.0</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>128</v>
+        <v>69</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="C150" s="1">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="A151" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="D151" s="1"/>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
@@ -2841,6 +3094,9 @@
       <c r="B154" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="C154" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D154" s="1" t="s">
         <v>154</v>
       </c>
@@ -2866,6 +3122,9 @@
       <c r="B156" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="C156" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D156" s="1" t="s">
         <v>154</v>
       </c>
@@ -2905,6 +3164,9 @@
       <c r="B159" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="C159" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D159" s="1" t="s">
         <v>154</v>
       </c>
@@ -2916,6 +3178,9 @@
       <c r="B160" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="C160" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D160" s="1" t="s">
         <v>154</v>
       </c>
@@ -2927,6 +3192,9 @@
       <c r="B161" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="C161" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D161" s="1" t="s">
         <v>154</v>
       </c>
@@ -2938,6 +3206,9 @@
       <c r="B162" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="C162" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D162" s="1" t="s">
         <v>154</v>
       </c>
@@ -2949,6 +3220,9 @@
       <c r="B163" s="2" t="s">
         <v>166</v>
       </c>
+      <c r="C163" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D163" s="1" t="s">
         <v>154</v>
       </c>
@@ -2960,6 +3234,9 @@
       <c r="B164" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="C164" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D164" s="1" t="s">
         <v>154</v>
       </c>
@@ -2971,6 +3248,9 @@
       <c r="B165" s="2" t="s">
         <v>168</v>
       </c>
+      <c r="C165" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D165" s="1" t="s">
         <v>154</v>
       </c>
@@ -2982,6 +3262,9 @@
       <c r="B166" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="C166" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D166" s="1" t="s">
         <v>154</v>
       </c>
@@ -2993,6 +3276,9 @@
       <c r="B167" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="C167" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D167" s="1" t="s">
         <v>154</v>
       </c>
@@ -3004,6 +3290,9 @@
       <c r="B168" s="2" t="s">
         <v>170</v>
       </c>
+      <c r="C168" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D168" s="1" t="s">
         <v>154</v>
       </c>
@@ -3015,6 +3304,9 @@
       <c r="B169" s="2" t="s">
         <v>171</v>
       </c>
+      <c r="C169" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D169" s="1" t="s">
         <v>154</v>
       </c>
@@ -3026,6 +3318,9 @@
       <c r="B170" s="2" t="s">
         <v>172</v>
       </c>
+      <c r="C170" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D170" s="1" t="s">
         <v>154</v>
       </c>
@@ -3037,6 +3332,9 @@
       <c r="B171" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="C171" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D171" s="1" t="s">
         <v>154</v>
       </c>
@@ -3048,6 +3346,9 @@
       <c r="B172" s="2" t="s">
         <v>174</v>
       </c>
+      <c r="C172" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D172" s="1" t="s">
         <v>154</v>
       </c>
@@ -3059,6 +3360,9 @@
       <c r="B173" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="C173" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D173" s="1" t="s">
         <v>154</v>
       </c>
@@ -3070,6 +3374,9 @@
       <c r="B174" s="2" t="s">
         <v>176</v>
       </c>
+      <c r="C174" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D174" s="1" t="s">
         <v>154</v>
       </c>
@@ -3081,6 +3388,9 @@
       <c r="B175" s="2" t="s">
         <v>170</v>
       </c>
+      <c r="C175" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D175" s="1" t="s">
         <v>154</v>
       </c>
@@ -3092,6 +3402,9 @@
       <c r="B176" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="C176" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D176" s="1" t="s">
         <v>154</v>
       </c>
@@ -3103,6 +3416,9 @@
       <c r="B177" s="2" t="s">
         <v>178</v>
       </c>
+      <c r="C177" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D177" s="1" t="s">
         <v>154</v>
       </c>
@@ -3114,6 +3430,9 @@
       <c r="B178" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="C178" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D178" s="1" t="s">
         <v>154</v>
       </c>
@@ -3125,6 +3444,9 @@
       <c r="B179" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="C179" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D179" s="1" t="s">
         <v>154</v>
       </c>
@@ -3136,6 +3458,9 @@
       <c r="B180" s="2" t="s">
         <v>181</v>
       </c>
+      <c r="C180" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D180" s="1" t="s">
         <v>154</v>
       </c>
@@ -3147,6 +3472,9 @@
       <c r="B181" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="C181" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D181" s="1" t="s">
         <v>154</v>
       </c>
@@ -3158,6 +3486,9 @@
       <c r="B182" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="C182" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D182" s="1" t="s">
         <v>154</v>
       </c>
@@ -3169,6 +3500,9 @@
       <c r="B183" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="C183" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D183" s="1" t="s">
         <v>154</v>
       </c>
@@ -3180,6 +3514,9 @@
       <c r="B184" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="C184" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D184" s="1" t="s">
         <v>154</v>
       </c>
@@ -3191,6 +3528,9 @@
       <c r="B185" s="2" t="s">
         <v>186</v>
       </c>
+      <c r="C185" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D185" s="1" t="s">
         <v>154</v>
       </c>
@@ -3202,6 +3542,9 @@
       <c r="B186" s="2" t="s">
         <v>187</v>
       </c>
+      <c r="C186" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D186" s="1" t="s">
         <v>154</v>
       </c>
@@ -3213,6 +3556,9 @@
       <c r="B187" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="C187" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D187" s="1" t="s">
         <v>154</v>
       </c>
@@ -3224,6 +3570,9 @@
       <c r="B188" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="C188" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D188" s="1" t="s">
         <v>154</v>
       </c>
@@ -3235,6 +3584,9 @@
       <c r="B189" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="C189" s="1">
+        <v>100.0</v>
+      </c>
       <c r="D189" s="1" t="s">
         <v>12</v>
       </c>
@@ -3246,6 +3598,9 @@
       <c r="B190" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="C190" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D190" s="1" t="s">
         <v>154</v>
       </c>
@@ -3257,6 +3612,9 @@
       <c r="B191" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="C191" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D191" s="1" t="s">
         <v>154</v>
       </c>
@@ -3268,6 +3626,9 @@
       <c r="B192" s="3" t="s">
         <v>189</v>
       </c>
+      <c r="C192" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D192" s="1" t="s">
         <v>12</v>
       </c>
@@ -3283,7 +3644,7 @@
         <v>1.0</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="194">
@@ -3297,7 +3658,7 @@
         <v>1.0</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="195">
@@ -3311,7 +3672,7 @@
         <v>1.0</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="196">
@@ -3325,7 +3686,7 @@
         <v>1.0</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="197">
@@ -3371,7 +3732,7 @@
         <v>1.0</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="202">
@@ -3385,7 +3746,7 @@
         <v>1.0</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="203">
@@ -3399,7 +3760,7 @@
         <v>1.0</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="204">
@@ -3619,6 +3980,9 @@
       <c r="B219" s="3" t="s">
         <v>209</v>
       </c>
+      <c r="C219" s="1">
+        <v>100.0</v>
+      </c>
       <c r="D219" s="1" t="s">
         <v>12</v>
       </c>
@@ -3630,6 +3994,9 @@
       <c r="B220" s="3" t="s">
         <v>189</v>
       </c>
+      <c r="C220" s="1">
+        <v>110.0</v>
+      </c>
       <c r="D220" s="1" t="s">
         <v>12</v>
       </c>
@@ -3639,10 +4006,13 @@
         <v>210</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="C221" s="1">
+        <v>5.0</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="222">
@@ -3652,8 +4022,11 @@
       <c r="B222" s="2" t="s">
         <v>210</v>
       </c>
+      <c r="C222" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D222" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="223">
@@ -3663,8 +4036,11 @@
       <c r="B223" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="C223" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D223" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="224">
@@ -3674,8 +4050,11 @@
       <c r="B224" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="C224" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D224" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="225">
@@ -3685,8 +4064,11 @@
       <c r="B225" s="2" t="s">
         <v>213</v>
       </c>
+      <c r="C225" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D225" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="226">
@@ -3696,6 +4078,9 @@
       <c r="B226" s="3" t="s">
         <v>156</v>
       </c>
+      <c r="C226" s="1">
+        <v>100.0</v>
+      </c>
       <c r="D226" s="1" t="s">
         <v>12</v>
       </c>
@@ -3787,6 +4172,9 @@
       <c r="B237" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="C237" s="1">
+        <v>100.0</v>
+      </c>
       <c r="D237" s="1" t="s">
         <v>12</v>
       </c>
@@ -3798,6 +4186,9 @@
       <c r="B238" s="2" t="s">
         <v>225</v>
       </c>
+      <c r="C238" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D238" s="1" t="s">
         <v>51</v>
       </c>
@@ -3809,6 +4200,9 @@
       <c r="B239" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="C239" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D239" s="1" t="s">
         <v>51</v>
       </c>
@@ -3820,6 +4214,9 @@
       <c r="B240" s="2" t="s">
         <v>228</v>
       </c>
+      <c r="C240" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D240" s="1" t="s">
         <v>51</v>
       </c>
@@ -3831,6 +4228,9 @@
       <c r="B241" s="2" t="s">
         <v>229</v>
       </c>
+      <c r="C241" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D241" s="1" t="s">
         <v>51</v>
       </c>
@@ -3842,6 +4242,9 @@
       <c r="B242" s="2" t="s">
         <v>225</v>
       </c>
+      <c r="C242" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D242" s="1" t="s">
         <v>51</v>
       </c>
@@ -3853,6 +4256,9 @@
       <c r="B243" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="C243" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D243" s="1" t="s">
         <v>51</v>
       </c>
@@ -3864,6 +4270,9 @@
       <c r="B244" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="C244" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D244" s="1" t="s">
         <v>51</v>
       </c>
@@ -3875,6 +4284,9 @@
       <c r="B245" s="2" t="s">
         <v>233</v>
       </c>
+      <c r="C245" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D245" s="1" t="s">
         <v>51</v>
       </c>
@@ -3886,6 +4298,9 @@
       <c r="B246" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="C246" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D246" s="1" t="s">
         <v>51</v>
       </c>
@@ -3897,6 +4312,9 @@
       <c r="B247" s="2" t="s">
         <v>233</v>
       </c>
+      <c r="C247" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D247" s="1" t="s">
         <v>51</v>
       </c>
@@ -3908,6 +4326,9 @@
       <c r="B248" s="2" t="s">
         <v>236</v>
       </c>
+      <c r="C248" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D248" s="1" t="s">
         <v>51</v>
       </c>
@@ -3919,6 +4340,9 @@
       <c r="B249" s="2" t="s">
         <v>237</v>
       </c>
+      <c r="C249" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D249" s="1" t="s">
         <v>51</v>
       </c>
@@ -3930,6 +4354,9 @@
       <c r="B250" s="2" t="s">
         <v>233</v>
       </c>
+      <c r="C250" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D250" s="1" t="s">
         <v>51</v>
       </c>
@@ -3941,6 +4368,9 @@
       <c r="B251" s="2" t="s">
         <v>237</v>
       </c>
+      <c r="C251" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D251" s="1" t="s">
         <v>51</v>
       </c>
@@ -3952,6 +4382,9 @@
       <c r="B252" s="2" t="s">
         <v>238</v>
       </c>
+      <c r="C252" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D252" s="1" t="s">
         <v>51</v>
       </c>
@@ -3963,6 +4396,9 @@
       <c r="B253" s="2" t="s">
         <v>234</v>
       </c>
+      <c r="C253" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D253" s="1" t="s">
         <v>51</v>
       </c>
@@ -3982,6 +4418,9 @@
       <c r="B255" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="C255" s="1">
+        <v>100.0</v>
+      </c>
       <c r="D255" s="1" t="s">
         <v>12</v>
       </c>
@@ -3993,6 +4432,9 @@
       <c r="B256" s="2" t="s">
         <v>242</v>
       </c>
+      <c r="C256" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D256" s="1" t="s">
         <v>243</v>
       </c>
@@ -4004,6 +4446,9 @@
       <c r="B257" s="2" t="s">
         <v>244</v>
       </c>
+      <c r="C257" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D257" s="1" t="s">
         <v>243</v>
       </c>
@@ -4015,6 +4460,9 @@
       <c r="B258" s="2" t="s">
         <v>245</v>
       </c>
+      <c r="C258" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D258" s="1" t="s">
         <v>243</v>
       </c>
@@ -4026,6 +4474,9 @@
       <c r="B259" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="C259" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D259" s="1" t="s">
         <v>243</v>
       </c>
@@ -4037,6 +4488,9 @@
       <c r="B260" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="C260" s="1">
+        <v>100.0</v>
+      </c>
       <c r="D260" s="1" t="s">
         <v>12</v>
       </c>
@@ -4048,6 +4502,9 @@
       <c r="B261" s="2" t="s">
         <v>241</v>
       </c>
+      <c r="C261" s="1">
+        <v>5.0</v>
+      </c>
       <c r="D261" s="1" t="s">
         <v>243</v>
       </c>
@@ -4059,6 +4516,9 @@
       <c r="B262" s="2" t="s">
         <v>247</v>
       </c>
+      <c r="C262" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D262" s="1" t="s">
         <v>243</v>
       </c>
@@ -4070,6 +4530,9 @@
       <c r="B263" s="2" t="s">
         <v>248</v>
       </c>
+      <c r="C263" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D263" s="1" t="s">
         <v>243</v>
       </c>
@@ -4081,6 +4544,9 @@
       <c r="B264" s="2" t="s">
         <v>249</v>
       </c>
+      <c r="C264" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D264" s="1" t="s">
         <v>243</v>
       </c>
@@ -4092,6 +4558,9 @@
       <c r="B265" s="2" t="s">
         <v>250</v>
       </c>
+      <c r="C265" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D265" s="1" t="s">
         <v>243</v>
       </c>
@@ -4103,6 +4572,9 @@
       <c r="B266" s="2" t="s">
         <v>251</v>
       </c>
+      <c r="C266" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D266" s="1" t="s">
         <v>243</v>
       </c>
@@ -4114,6 +4586,9 @@
       <c r="B267" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="C267" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D267" s="1" t="s">
         <v>243</v>
       </c>
@@ -4124,6 +4599,9 @@
       </c>
       <c r="B268" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="C268" s="1">
+        <v>5.0</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>243</v>

--- a/Datos/datos grafo salas.xlsx
+++ b/Datos/datos grafo salas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="279">
   <si>
     <t>nodo1</t>
   </si>
@@ -2083,6 +2083,9 @@
       <c r="A69" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C69" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D69" s="1" t="s">
         <v>12</v>
       </c>
@@ -2091,6 +2094,9 @@
       <c r="A70" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="C70" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D70" s="1" t="s">
         <v>12</v>
       </c>
@@ -2099,6 +2105,9 @@
       <c r="A71" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="C71" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D71" s="1" t="s">
         <v>12</v>
       </c>
@@ -2107,6 +2116,9 @@
       <c r="A72" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="C72" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D72" s="1" t="s">
         <v>12</v>
       </c>
@@ -2115,6 +2127,9 @@
       <c r="A73" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="C73" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D73" s="1" t="s">
         <v>12</v>
       </c>
@@ -2123,6 +2138,9 @@
       <c r="A74" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="C74" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D74" s="1" t="s">
         <v>12</v>
       </c>
@@ -2131,6 +2149,9 @@
       <c r="A75" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="C75" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D75" s="1" t="s">
         <v>12</v>
       </c>
@@ -2139,6 +2160,9 @@
       <c r="A76" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="C76" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D76" s="1" t="s">
         <v>12</v>
       </c>
@@ -2147,6 +2171,9 @@
       <c r="A77" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="C77" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D77" s="1" t="s">
         <v>12</v>
       </c>
@@ -2155,6 +2182,9 @@
       <c r="A78" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="C78" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D78" s="1" t="s">
         <v>12</v>
       </c>
@@ -2163,6 +2193,9 @@
       <c r="A79" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="C79" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D79" s="1" t="s">
         <v>12</v>
       </c>
@@ -2171,6 +2204,9 @@
       <c r="A80" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="C80" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D80" s="1" t="s">
         <v>12</v>
       </c>
@@ -2179,6 +2215,9 @@
       <c r="A81" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="C81" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D81" s="1" t="s">
         <v>12</v>
       </c>
@@ -2187,6 +2226,9 @@
       <c r="A82" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C82" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D82" s="1" t="s">
         <v>12</v>
       </c>
@@ -2195,6 +2237,9 @@
       <c r="A83" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="C83" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D83" s="1" t="s">
         <v>12</v>
       </c>
@@ -2203,6 +2248,9 @@
       <c r="A84" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="C84" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D84" s="1" t="s">
         <v>12</v>
       </c>
@@ -2211,6 +2259,9 @@
       <c r="A85" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="C85" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D85" s="1" t="s">
         <v>12</v>
       </c>
@@ -2219,6 +2270,9 @@
       <c r="A86" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="C86" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D86" s="1" t="s">
         <v>12</v>
       </c>
@@ -2227,6 +2281,9 @@
       <c r="A87" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="C87" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D87" s="1" t="s">
         <v>12</v>
       </c>
@@ -2235,6 +2292,9 @@
       <c r="A88" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="C88" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D88" s="1" t="s">
         <v>12</v>
       </c>
@@ -2243,6 +2303,9 @@
       <c r="A89" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="C89" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D89" s="1" t="s">
         <v>12</v>
       </c>
@@ -2251,6 +2314,9 @@
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="C90" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D90" s="1" t="s">
         <v>12</v>
       </c>
@@ -2259,6 +2325,9 @@
       <c r="A91" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="C91" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D91" s="1" t="s">
         <v>12</v>
       </c>
@@ -2267,6 +2336,9 @@
       <c r="A92" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="C92" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D92" s="1" t="s">
         <v>12</v>
       </c>
@@ -2275,6 +2347,9 @@
       <c r="A93" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="C93" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D93" s="1" t="s">
         <v>12</v>
       </c>
@@ -2283,6 +2358,9 @@
       <c r="A94" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="C94" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D94" s="1" t="s">
         <v>12</v>
       </c>
@@ -2291,6 +2369,9 @@
       <c r="A95" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="C95" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D95" s="1" t="s">
         <v>12</v>
       </c>
@@ -2299,6 +2380,9 @@
       <c r="A96" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="C96" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D96" s="1" t="s">
         <v>12</v>
       </c>
@@ -2307,6 +2391,9 @@
       <c r="A97" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="C97" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D97" s="1" t="s">
         <v>12</v>
       </c>
@@ -2315,6 +2402,9 @@
       <c r="A98" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="C98" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D98" s="1" t="s">
         <v>12</v>
       </c>
@@ -3057,7 +3147,9 @@
       <c r="C151" s="1">
         <v>100.0</v>
       </c>
-      <c r="D151" s="1"/>
+      <c r="D151" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
@@ -3693,6 +3785,9 @@
       <c r="A197" s="2" t="s">
         <v>194</v>
       </c>
+      <c r="C197" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D197" s="1" t="s">
         <v>12</v>
       </c>
@@ -3701,6 +3796,9 @@
       <c r="A198" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="C198" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D198" s="1" t="s">
         <v>12</v>
       </c>
@@ -3709,6 +3807,9 @@
       <c r="A199" s="2" t="s">
         <v>196</v>
       </c>
+      <c r="C199" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D199" s="1" t="s">
         <v>12</v>
       </c>
@@ -3717,6 +3818,9 @@
       <c r="A200" s="2" t="s">
         <v>197</v>
       </c>
+      <c r="C200" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D200" s="1" t="s">
         <v>12</v>
       </c>
@@ -4089,6 +4193,9 @@
       <c r="A227" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="C227" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D227" s="1" t="s">
         <v>12</v>
       </c>
@@ -4097,6 +4204,9 @@
       <c r="A228" s="2" t="s">
         <v>216</v>
       </c>
+      <c r="C228" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D228" s="1" t="s">
         <v>12</v>
       </c>
@@ -4105,6 +4215,9 @@
       <c r="A229" s="2" t="s">
         <v>217</v>
       </c>
+      <c r="C229" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D229" s="1" t="s">
         <v>12</v>
       </c>
@@ -4113,6 +4226,9 @@
       <c r="A230" s="2" t="s">
         <v>218</v>
       </c>
+      <c r="C230" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D230" s="1" t="s">
         <v>12</v>
       </c>
@@ -4121,6 +4237,9 @@
       <c r="A231" s="2" t="s">
         <v>219</v>
       </c>
+      <c r="C231" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D231" s="1" t="s">
         <v>12</v>
       </c>
@@ -4129,6 +4248,9 @@
       <c r="A232" s="2" t="s">
         <v>220</v>
       </c>
+      <c r="C232" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D232" s="1" t="s">
         <v>12</v>
       </c>
@@ -4137,6 +4259,9 @@
       <c r="A233" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="C233" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D233" s="1" t="s">
         <v>12</v>
       </c>
@@ -4145,6 +4270,9 @@
       <c r="A234" s="2" t="s">
         <v>222</v>
       </c>
+      <c r="C234" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D234" s="1" t="s">
         <v>12</v>
       </c>
@@ -4153,6 +4281,9 @@
       <c r="A235" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="C235" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D235" s="1" t="s">
         <v>12</v>
       </c>
@@ -4161,6 +4292,9 @@
       <c r="A236" s="2" t="s">
         <v>224</v>
       </c>
+      <c r="C236" s="1">
+        <v>0.0</v>
+      </c>
       <c r="D236" s="1" t="s">
         <v>12</v>
       </c>
@@ -4406,6 +4540,9 @@
     <row r="254">
       <c r="A254" s="2" t="s">
         <v>240</v>
+      </c>
+      <c r="C254" s="1">
+        <v>0.0</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>12</v>

--- a/Datos/datos grafo salas.xlsx
+++ b/Datos/datos grafo salas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="278">
   <si>
     <t>nodo1</t>
   </si>
@@ -205,7 +205,7 @@
     <t>F201</t>
   </si>
   <si>
-    <t>ENF??</t>
+    <t>C203-003</t>
   </si>
   <si>
     <t>AG1</t>
@@ -479,9 +479,6 @@
   </si>
   <si>
     <t>C003</t>
-  </si>
-  <si>
-    <t>C203-003</t>
   </si>
   <si>
     <t>C200</t>
@@ -1943,11 +1940,14 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>64</v>
+      <c r="B59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="1">
+        <v>50.0</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>12</v>
@@ -1955,38 +1955,38 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C61" s="1">
         <v>100.0</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1.0</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C62" s="1">
         <v>1.0</v>
@@ -1996,39 +1996,39 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="C63" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C64" s="1">
         <v>100.0</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1.0</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C65" s="1">
         <v>1.0</v>
@@ -2039,10 +2039,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C66" s="1">
         <v>1.0</v>
@@ -2053,10 +2053,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C67" s="1">
         <v>1.0</v>
@@ -2067,10 +2067,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C68" s="1">
         <v>1.0</v>
@@ -2081,18 +2081,21 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C69" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" s="1">
         <v>0.0</v>
@@ -2103,7 +2106,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71" s="1">
         <v>0.0</v>
@@ -2114,7 +2117,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="1">
         <v>0.0</v>
@@ -2125,7 +2128,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C73" s="1">
         <v>0.0</v>
@@ -2136,7 +2139,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C74" s="1">
         <v>0.0</v>
@@ -2147,7 +2150,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C75" s="1">
         <v>0.0</v>
@@ -2158,7 +2161,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C76" s="1">
         <v>0.0</v>
@@ -2169,7 +2172,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C77" s="1">
         <v>0.0</v>
@@ -2180,7 +2183,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C78" s="1">
         <v>0.0</v>
@@ -2191,7 +2194,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C79" s="1">
         <v>0.0</v>
@@ -2202,7 +2205,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C80" s="1">
         <v>0.0</v>
@@ -2213,7 +2216,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C81" s="1">
         <v>0.0</v>
@@ -2224,7 +2227,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C82" s="1">
         <v>0.0</v>
@@ -2235,7 +2238,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C83" s="1">
         <v>0.0</v>
@@ -2246,7 +2249,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C84" s="1">
         <v>0.0</v>
@@ -2257,7 +2260,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" s="1">
         <v>0.0</v>
@@ -2268,7 +2271,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C86" s="1">
         <v>0.0</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="1">
         <v>0.0</v>
@@ -2290,7 +2293,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C88" s="1">
         <v>0.0</v>
@@ -2301,7 +2304,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C89" s="1">
         <v>0.0</v>
@@ -2312,7 +2315,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C90" s="1">
         <v>0.0</v>
@@ -2323,7 +2326,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C91" s="1">
         <v>0.0</v>
@@ -2334,7 +2337,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C92" s="1">
         <v>0.0</v>
@@ -2345,7 +2348,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C93" s="1">
         <v>0.0</v>
@@ -2356,7 +2359,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C94" s="1">
         <v>0.0</v>
@@ -2367,7 +2370,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C95" s="1">
         <v>0.0</v>
@@ -2378,7 +2381,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C96" s="1">
         <v>0.0</v>
@@ -2389,7 +2392,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C97" s="1">
         <v>0.0</v>
@@ -2400,7 +2403,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C98" s="1">
         <v>0.0</v>
@@ -2411,24 +2414,21 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C99" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C100" s="1">
         <v>1.0</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C101" s="1">
         <v>1.0</v>
@@ -2455,8 +2455,8 @@
       <c r="A102" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>107</v>
+      <c r="B102" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="C102" s="1">
         <v>1.0</v>
@@ -2467,10 +2467,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C103" s="1">
         <v>1.0</v>
@@ -2484,7 +2484,7 @@
         <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C104" s="1">
         <v>1.0</v>
@@ -2495,10 +2495,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C105" s="1">
         <v>1.0</v>
@@ -2509,10 +2509,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C106" s="1">
         <v>1.0</v>
@@ -2523,13 +2523,13 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C107" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>106</v>
@@ -2537,10 +2537,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C108" s="1">
         <v>2.0</v>
@@ -2550,42 +2550,42 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C110" s="1">
         <v>100.0</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C110" s="1">
-        <v>5.0</v>
-      </c>
       <c r="D110" s="1" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C111" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>106</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C112" s="1">
         <v>1.0</v>
@@ -2607,10 +2607,10 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C113" s="1">
         <v>1.0</v>
@@ -2624,10 +2624,10 @@
         <v>118</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C114" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>106</v>
@@ -2635,13 +2635,13 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C115" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>106</v>
@@ -2649,10 +2649,10 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C116" s="1">
         <v>1.0</v>
@@ -2663,10 +2663,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="C117" s="1">
         <v>1.0</v>
@@ -2676,45 +2676,45 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="C118" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C119" s="1">
         <v>100.0</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C119" s="1">
-        <v>1.0</v>
-      </c>
       <c r="D119" s="1" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C120" s="1">
         <v>1.0</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121">
@@ -2722,10 +2722,10 @@
         <v>122</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C121" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>124</v>
@@ -2733,13 +2733,13 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C122" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>124</v>
@@ -2747,13 +2747,13 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C123" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>124</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>127</v>
@@ -2777,11 +2777,11 @@
       <c r="A125" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>69</v>
+      <c r="B125" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C125" s="1">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>124</v>
@@ -2789,13 +2789,13 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B126" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="B126" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C126" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>124</v>
@@ -2803,10 +2803,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B127" s="1" t="s">
         <v>129</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C127" s="1">
         <v>1.0</v>
@@ -2817,10 +2817,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="C128" s="1">
         <v>1.0</v>
@@ -2830,42 +2830,42 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C129" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="C130" s="1">
         <v>5.0</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C131" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>124</v>
@@ -2873,10 +2873,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C132" s="1">
         <v>1.0</v>
@@ -2887,13 +2887,13 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C133" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>124</v>
@@ -2904,10 +2904,10 @@
         <v>137</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C134" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>124</v>
@@ -2918,10 +2918,10 @@
         <v>137</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C135" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>124</v>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C136" s="1">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>124</v>
@@ -2943,10 +2943,10 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C137" s="1">
         <v>5.0</v>
@@ -2957,13 +2957,13 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C138" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>124</v>
@@ -2971,10 +2971,10 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C139" s="1">
         <v>1.0</v>
@@ -2985,10 +2985,10 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C140" s="1">
         <v>1.0</v>
@@ -2999,10 +2999,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C141" s="1">
         <v>1.0</v>
@@ -3013,10 +3013,10 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C142" s="1">
         <v>1.0</v>
@@ -3027,10 +3027,10 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C143" s="1">
         <v>1.0</v>
@@ -3044,10 +3044,10 @@
         <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C144" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>124</v>
@@ -3055,41 +3055,41 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C145" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B146" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C146" s="1">
         <v>5.0</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="3" t="s">
+      <c r="D146" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B147" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C147" s="1">
         <v>100.0</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C147" s="1">
-        <v>1.0</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>12</v>
@@ -3097,10 +3097,10 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C148" s="1">
         <v>1.0</v>
@@ -3111,66 +3111,66 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>69</v>
+        <v>150</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="C149" s="1">
         <v>1.0</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="C150" s="1">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B152" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C152" s="1">
         <v>100.0</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C152" s="1">
-        <v>1.0</v>
-      </c>
       <c r="D152" s="1" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="C153" s="1">
         <v>1.0</v>
@@ -3181,13 +3181,13 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="C154" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>154</v>
@@ -3195,13 +3195,13 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="C155" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>154</v>
@@ -3209,13 +3209,13 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="C156" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>154</v>
@@ -3223,13 +3223,13 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C157" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>154</v>
@@ -3237,10 +3237,10 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C158" s="1">
         <v>1.0</v>
@@ -3251,13 +3251,13 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C159" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>154</v>
@@ -3265,13 +3265,13 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C160" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>154</v>
@@ -3279,13 +3279,13 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C161" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>154</v>
@@ -3293,13 +3293,13 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="C162" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>154</v>
@@ -3307,10 +3307,10 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C163" s="1">
         <v>1.0</v>
@@ -3321,10 +3321,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C164" s="1">
         <v>1.0</v>
@@ -3335,10 +3335,10 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C165" s="1">
         <v>1.0</v>
@@ -3349,10 +3349,10 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C166" s="1">
         <v>1.0</v>
@@ -3363,10 +3363,10 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C167" s="1">
         <v>1.0</v>
@@ -3377,13 +3377,13 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C168" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>154</v>
@@ -3391,13 +3391,13 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C169" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>154</v>
@@ -3405,13 +3405,13 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C170" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>154</v>
@@ -3419,13 +3419,13 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="C171" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>154</v>
@@ -3433,10 +3433,10 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C172" s="1">
         <v>1.0</v>
@@ -3447,10 +3447,10 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C173" s="1">
         <v>1.0</v>
@@ -3461,10 +3461,10 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C174" s="1">
         <v>1.0</v>
@@ -3475,10 +3475,10 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C175" s="1">
         <v>1.0</v>
@@ -3489,13 +3489,13 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C176" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>154</v>
@@ -3503,13 +3503,13 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C177" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>154</v>
@@ -3517,10 +3517,10 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C178" s="1">
         <v>1.0</v>
@@ -3531,10 +3531,10 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C179" s="1">
         <v>1.0</v>
@@ -3545,10 +3545,10 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C180" s="1">
         <v>1.0</v>
@@ -3559,10 +3559,10 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C181" s="1">
         <v>1.0</v>
@@ -3573,10 +3573,10 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C182" s="1">
         <v>1.0</v>
@@ -3587,10 +3587,10 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C183" s="1">
         <v>1.0</v>
@@ -3601,10 +3601,10 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C184" s="1">
         <v>1.0</v>
@@ -3615,10 +3615,10 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C185" s="1">
         <v>1.0</v>
@@ -3629,10 +3629,10 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C186" s="1">
         <v>1.0</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C187" s="1">
         <v>1.0</v>
@@ -3657,52 +3657,52 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C188" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B189" s="3" t="s">
+      <c r="A189" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C189" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C189" s="1">
+      <c r="C190" s="1">
         <v>100.0</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C190" s="1">
-        <v>5.0</v>
-      </c>
       <c r="D190" s="1" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C191" s="1">
         <v>5.0</v>
@@ -3712,39 +3712,39 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>189</v>
+      <c r="A192" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="C192" s="1">
         <v>5.0</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>151</v>
+      <c r="A193" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="C193" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="C194" s="1">
         <v>1.0</v>
@@ -3755,10 +3755,10 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C195" s="1">
         <v>1.0</v>
@@ -3769,10 +3769,10 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C196" s="1">
         <v>1.0</v>
@@ -3783,18 +3783,21 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C197" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C198" s="1">
         <v>0.0</v>
@@ -3805,7 +3808,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C199" s="1">
         <v>0.0</v>
@@ -3816,7 +3819,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C200" s="1">
         <v>0.0</v>
@@ -3827,24 +3830,21 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C201" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C202" s="1">
         <v>1.0</v>
@@ -3855,10 +3855,10 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C203" s="1">
         <v>1.0</v>
@@ -3869,58 +3869,58 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C204" s="1">
         <v>1.0</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C205" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C205" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C206" s="1">
         <v>1.0</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="C207" s="1">
         <v>1.0</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="208">
@@ -3928,97 +3928,97 @@
         <v>203</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C208" s="1">
         <v>1.0</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C209" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C209" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C210" s="1">
         <v>1.0</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C211" s="1">
         <v>1.0</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C212" s="1">
         <v>1.0</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C213" s="1">
         <v>1.0</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C214" s="1">
         <v>1.0</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="215">
@@ -4026,32 +4026,32 @@
         <v>207</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C215" s="1">
         <v>1.0</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C216" s="1">
         <v>1.0</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>205</v>
@@ -4060,35 +4060,35 @@
         <v>1.0</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C218" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C219" s="1">
         <v>2.0</v>
       </c>
-      <c r="D218" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C219" s="1">
-        <v>100.0</v>
-      </c>
       <c r="D219" s="1" t="s">
-        <v>12</v>
+        <v>201</v>
       </c>
     </row>
     <row r="220">
@@ -4096,38 +4096,38 @@
         <v>24</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C220" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C221" s="1">
         <v>110.0</v>
       </c>
-      <c r="D220" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C221" s="1">
-        <v>5.0</v>
-      </c>
       <c r="D221" s="1" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="C222" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>106</v>
@@ -4135,10 +4135,10 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C223" s="1">
         <v>1.0</v>
@@ -4149,10 +4149,10 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C224" s="1">
         <v>1.0</v>
@@ -4163,10 +4163,10 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C225" s="1">
         <v>1.0</v>
@@ -4176,25 +4176,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>156</v>
+      <c r="A226" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C226" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C227" s="1">
         <v>100.0</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C227" s="1">
-        <v>0.0</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>12</v>
@@ -4202,7 +4205,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C228" s="1">
         <v>0.0</v>
@@ -4213,7 +4216,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C229" s="1">
         <v>0.0</v>
@@ -4224,7 +4227,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C230" s="1">
         <v>0.0</v>
@@ -4235,7 +4238,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C231" s="1">
         <v>0.0</v>
@@ -4246,7 +4249,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C232" s="1">
         <v>0.0</v>
@@ -4257,7 +4260,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C233" s="1">
         <v>0.0</v>
@@ -4268,7 +4271,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C234" s="1">
         <v>0.0</v>
@@ -4279,7 +4282,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C235" s="1">
         <v>0.0</v>
@@ -4290,7 +4293,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C236" s="1">
         <v>0.0</v>
@@ -4300,42 +4303,39 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B237" s="3" t="s">
+      <c r="A237" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C237" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B238" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C237" s="1">
+      <c r="C238" s="1">
         <v>100.0</v>
       </c>
-      <c r="D237" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C238" s="1">
-        <v>5.0</v>
-      </c>
       <c r="D238" s="1" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C239" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>51</v>
@@ -4343,10 +4343,10 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C240" s="1">
         <v>1.0</v>
@@ -4357,10 +4357,10 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C241" s="1">
         <v>1.0</v>
@@ -4371,13 +4371,13 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C242" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>51</v>
@@ -4385,13 +4385,13 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="C243" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>51</v>
@@ -4399,10 +4399,10 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="C244" s="1">
         <v>1.0</v>
@@ -4413,10 +4413,10 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C245" s="1">
         <v>1.0</v>
@@ -4427,13 +4427,13 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="C246" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>51</v>
@@ -4441,13 +4441,13 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="C247" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>51</v>
@@ -4455,10 +4455,10 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C248" s="1">
         <v>1.0</v>
@@ -4469,10 +4469,10 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C249" s="1">
         <v>1.0</v>
@@ -4483,13 +4483,13 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C250" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>51</v>
@@ -4497,13 +4497,13 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C251" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>51</v>
@@ -4511,10 +4511,10 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C252" s="1">
         <v>1.0</v>
@@ -4525,13 +4525,13 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C253" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>51</v>
@@ -4539,230 +4539,245 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="C254" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B255" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C255" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C256" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B257" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C255" s="1">
+      <c r="C257" s="1">
         <v>100.0</v>
       </c>
-      <c r="D255" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C256" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C257" s="1">
-        <v>1.0</v>
-      </c>
       <c r="D257" s="1" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C258" s="1">
         <v>1.0</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="C259" s="1">
         <v>1.0</v>
       </c>
       <c r="D259" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>33</v>
+      <c r="B260" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="C260" s="1">
-        <v>100.0</v>
+        <v>1.0</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>241</v>
+        <v>49</v>
       </c>
       <c r="C261" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>247</v>
+      <c r="A262" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C262" s="1">
-        <v>1.0</v>
+        <v>100.0</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C263" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C264" s="1">
         <v>1.0</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C265" s="1">
         <v>1.0</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C266" s="1">
         <v>1.0</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C267" s="1">
         <v>1.0</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>49</v>
+        <v>250</v>
       </c>
       <c r="C268" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C269" s="1">
+        <v>1.0</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C270" s="1">
+        <v>5.0</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>12</v>
@@ -4770,7 +4785,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>12</v>
@@ -4778,7 +4793,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>12</v>
@@ -4786,7 +4801,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>12</v>
@@ -4794,7 +4809,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>12</v>
@@ -4802,7 +4817,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>12</v>
@@ -4810,7 +4825,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>12</v>
@@ -4818,7 +4833,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>12</v>
@@ -4826,7 +4841,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>12</v>
@@ -4834,7 +4849,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>12</v>
@@ -4842,7 +4857,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>12</v>
@@ -4850,7 +4865,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>12</v>
@@ -4858,7 +4873,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>12</v>
@@ -4866,7 +4881,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>12</v>
@@ -4874,7 +4889,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>12</v>
@@ -4882,7 +4897,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>12</v>
@@ -4890,7 +4905,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>12</v>
@@ -4898,7 +4913,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>12</v>
@@ -4906,7 +4921,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>12</v>
@@ -4914,7 +4929,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>12</v>
@@ -4922,7 +4937,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>12</v>
@@ -4930,7 +4945,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>12</v>
@@ -4938,7 +4953,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>12</v>
@@ -4946,9 +4961,25 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D294" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D296" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Datos/datos grafo salas.xlsx
+++ b/Datos/datos grafo salas.xlsx
@@ -358,21 +358,21 @@
     <t>S2</t>
   </si>
   <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
     <t>S5</t>
   </si>
   <si>
-    <t>S20</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S6</t>
-  </si>
-  <si>
     <t>S7</t>
   </si>
   <si>
@@ -541,37 +541,37 @@
     <t>C405</t>
   </si>
   <si>
+    <t>C510</t>
+  </si>
+  <si>
+    <t>C501</t>
+  </si>
+  <si>
+    <t>C502</t>
+  </si>
+  <si>
+    <t>C503</t>
+  </si>
+  <si>
+    <t>C504</t>
+  </si>
+  <si>
+    <t>C505</t>
+  </si>
+  <si>
+    <t>C506</t>
+  </si>
+  <si>
+    <t>C507</t>
+  </si>
+  <si>
+    <t>C508</t>
+  </si>
+  <si>
+    <t>C509</t>
+  </si>
+  <si>
     <t>C511</t>
-  </si>
-  <si>
-    <t>C501</t>
-  </si>
-  <si>
-    <t>C502</t>
-  </si>
-  <si>
-    <t>C503</t>
-  </si>
-  <si>
-    <t>C504</t>
-  </si>
-  <si>
-    <t>C505</t>
-  </si>
-  <si>
-    <t>C506</t>
-  </si>
-  <si>
-    <t>C507</t>
-  </si>
-  <si>
-    <t>C508</t>
-  </si>
-  <si>
-    <t>C509</t>
-  </si>
-  <si>
-    <t>C510</t>
   </si>
   <si>
     <t>C200-001</t>
@@ -881,12 +881,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -895,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -909,6 +915,13 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2094,334 +2107,994 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="1">
+      <c r="B70" s="6"/>
+      <c r="C70" s="7">
         <v>0.0</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6"/>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="1">
+      <c r="B71" s="6"/>
+      <c r="C71" s="7">
         <v>0.0</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D71" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="1">
+      <c r="B72" s="6"/>
+      <c r="C72" s="7">
         <v>0.0</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D72" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6"/>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="1">
+      <c r="B73" s="6"/>
+      <c r="C73" s="7">
         <v>0.0</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D73" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="1">
+      <c r="B74" s="6"/>
+      <c r="C74" s="7">
         <v>0.0</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D74" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="1">
+      <c r="B75" s="6"/>
+      <c r="C75" s="7">
         <v>0.0</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D75" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C76" s="1">
+      <c r="B76" s="6"/>
+      <c r="C76" s="7">
         <v>0.0</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D76" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C77" s="1">
+      <c r="B77" s="6"/>
+      <c r="C77" s="7">
         <v>0.0</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D77" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C78" s="1">
+      <c r="B78" s="6"/>
+      <c r="C78" s="7">
         <v>0.0</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D78" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="1">
+      <c r="B79" s="6"/>
+      <c r="C79" s="7">
         <v>0.0</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C80" s="1">
+      <c r="B80" s="6"/>
+      <c r="C80" s="7">
         <v>0.0</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C81" s="1">
+      <c r="B81" s="6"/>
+      <c r="C81" s="7">
         <v>0.0</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D81" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="1">
+      <c r="B82" s="6"/>
+      <c r="C82" s="7">
         <v>0.0</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D82" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C83" s="1">
+      <c r="B83" s="6"/>
+      <c r="C83" s="7">
         <v>0.0</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D83" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6"/>
+      <c r="Y83" s="6"/>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="1">
+      <c r="B84" s="6"/>
+      <c r="C84" s="7">
         <v>0.0</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D84" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
+      <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
+      <c r="Y84" s="6"/>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="1">
+      <c r="B85" s="6"/>
+      <c r="C85" s="7">
         <v>0.0</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D85" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6"/>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="1">
+      <c r="B86" s="6"/>
+      <c r="C86" s="7">
         <v>0.0</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D86" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C87" s="1">
+      <c r="B87" s="6"/>
+      <c r="C87" s="7">
         <v>0.0</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D87" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C88" s="1">
+      <c r="B88" s="6"/>
+      <c r="C88" s="7">
         <v>0.0</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D88" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6"/>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C89" s="1">
+      <c r="B89" s="6"/>
+      <c r="C89" s="7">
         <v>0.0</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D89" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="6"/>
+      <c r="V89" s="6"/>
+      <c r="W89" s="6"/>
+      <c r="X89" s="6"/>
+      <c r="Y89" s="6"/>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C90" s="1">
+      <c r="B90" s="6"/>
+      <c r="C90" s="7">
         <v>0.0</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D90" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C91" s="1">
+      <c r="B91" s="6"/>
+      <c r="C91" s="7">
         <v>0.0</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D91" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="6"/>
+      <c r="V91" s="6"/>
+      <c r="W91" s="6"/>
+      <c r="X91" s="6"/>
+      <c r="Y91" s="6"/>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C92" s="1">
+      <c r="B92" s="6"/>
+      <c r="C92" s="7">
         <v>0.0</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D92" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="6"/>
+      <c r="V92" s="6"/>
+      <c r="W92" s="6"/>
+      <c r="X92" s="6"/>
+      <c r="Y92" s="6"/>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C93" s="1">
+      <c r="B93" s="6"/>
+      <c r="C93" s="7">
         <v>0.0</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D93" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="6"/>
+      <c r="V93" s="6"/>
+      <c r="W93" s="6"/>
+      <c r="X93" s="6"/>
+      <c r="Y93" s="6"/>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C94" s="1">
+      <c r="B94" s="6"/>
+      <c r="C94" s="7">
         <v>0.0</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D94" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="6"/>
+      <c r="V94" s="6"/>
+      <c r="W94" s="6"/>
+      <c r="X94" s="6"/>
+      <c r="Y94" s="6"/>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C95" s="1">
+      <c r="B95" s="6"/>
+      <c r="C95" s="7">
         <v>0.0</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D95" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+      <c r="U95" s="6"/>
+      <c r="V95" s="6"/>
+      <c r="W95" s="6"/>
+      <c r="X95" s="6"/>
+      <c r="Y95" s="6"/>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C96" s="1">
+      <c r="B96" s="6"/>
+      <c r="C96" s="7">
         <v>0.0</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D96" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="6"/>
+      <c r="V96" s="6"/>
+      <c r="W96" s="6"/>
+      <c r="X96" s="6"/>
+      <c r="Y96" s="6"/>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C97" s="1">
+      <c r="B97" s="6"/>
+      <c r="C97" s="7">
         <v>0.0</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D97" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+      <c r="V97" s="6"/>
+      <c r="W97" s="6"/>
+      <c r="X97" s="6"/>
+      <c r="Y97" s="6"/>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C98" s="1">
+      <c r="B98" s="6"/>
+      <c r="C98" s="7">
         <v>0.0</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D98" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6"/>
+      <c r="U98" s="6"/>
+      <c r="V98" s="6"/>
+      <c r="W98" s="6"/>
+      <c r="X98" s="6"/>
+      <c r="Y98" s="6"/>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C99" s="1">
+      <c r="B99" s="6"/>
+      <c r="C99" s="7">
         <v>0.0</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D99" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+      <c r="T99" s="6"/>
+      <c r="U99" s="6"/>
+      <c r="V99" s="6"/>
+      <c r="W99" s="6"/>
+      <c r="X99" s="6"/>
+      <c r="Y99" s="6"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
@@ -2438,18 +3111,39 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C101" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D101" s="1" t="s">
+      <c r="C101" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>106</v>
       </c>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+      <c r="T101" s="6"/>
+      <c r="U101" s="6"/>
+      <c r="V101" s="6"/>
+      <c r="W101" s="6"/>
+      <c r="X101" s="6"/>
+      <c r="Y101" s="6"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
@@ -2466,18 +3160,39 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C103" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D103" s="1" t="s">
+      <c r="B103" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>106</v>
       </c>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="6"/>
+      <c r="T103" s="6"/>
+      <c r="U103" s="6"/>
+      <c r="V103" s="6"/>
+      <c r="W103" s="6"/>
+      <c r="X103" s="6"/>
+      <c r="Y103" s="6"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
@@ -2638,7 +3353,7 @@
         <v>118</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C115" s="1">
         <v>2.0</v>
@@ -2648,22 +3363,43 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C116" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D116" s="1" t="s">
+      <c r="C116" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D116" s="7" t="s">
         <v>106</v>
       </c>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
+      <c r="O116" s="6"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
+      <c r="R116" s="6"/>
+      <c r="S116" s="6"/>
+      <c r="T116" s="6"/>
+      <c r="U116" s="6"/>
+      <c r="V116" s="6"/>
+      <c r="W116" s="6"/>
+      <c r="X116" s="6"/>
+      <c r="Y116" s="6"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>120</v>
@@ -2704,18 +3440,39 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C120" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D120" s="1" t="s">
+      <c r="C120" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D120" s="7" t="s">
         <v>106</v>
       </c>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="6"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="6"/>
+      <c r="R120" s="6"/>
+      <c r="S120" s="6"/>
+      <c r="T120" s="6"/>
+      <c r="U120" s="6"/>
+      <c r="V120" s="6"/>
+      <c r="W120" s="6"/>
+      <c r="X120" s="6"/>
+      <c r="Y120" s="6"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
@@ -3096,32 +3853,74 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C148" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C148" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
+      <c r="O148" s="6"/>
+      <c r="P148" s="6"/>
+      <c r="Q148" s="6"/>
+      <c r="R148" s="6"/>
+      <c r="S148" s="6"/>
+      <c r="T148" s="6"/>
+      <c r="U148" s="6"/>
+      <c r="V148" s="6"/>
+      <c r="W148" s="6"/>
+      <c r="X148" s="6"/>
+      <c r="Y148" s="6"/>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C149" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C149" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="6"/>
+      <c r="M149" s="6"/>
+      <c r="N149" s="6"/>
+      <c r="O149" s="6"/>
+      <c r="P149" s="6"/>
+      <c r="Q149" s="6"/>
+      <c r="R149" s="6"/>
+      <c r="S149" s="6"/>
+      <c r="T149" s="6"/>
+      <c r="U149" s="6"/>
+      <c r="V149" s="6"/>
+      <c r="W149" s="6"/>
+      <c r="X149" s="6"/>
+      <c r="Y149" s="6"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
@@ -3646,7 +4445,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C187" s="1">
         <v>1.0</v>
@@ -3656,18 +4455,39 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B188" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C188" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D188" s="1" t="s">
+      <c r="C188" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D188" s="7" t="s">
         <v>154</v>
       </c>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+      <c r="I188" s="6"/>
+      <c r="J188" s="6"/>
+      <c r="K188" s="6"/>
+      <c r="L188" s="6"/>
+      <c r="M188" s="6"/>
+      <c r="N188" s="6"/>
+      <c r="O188" s="6"/>
+      <c r="P188" s="6"/>
+      <c r="Q188" s="6"/>
+      <c r="R188" s="6"/>
+      <c r="S188" s="6"/>
+      <c r="T188" s="6"/>
+      <c r="U188" s="6"/>
+      <c r="V188" s="6"/>
+      <c r="W188" s="6"/>
+      <c r="X188" s="6"/>
+      <c r="Y188" s="6"/>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">

--- a/Datos/datos grafo salas.xlsx
+++ b/Datos/datos grafo salas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="277">
   <si>
     <t>nodo1</t>
   </si>
@@ -46,7 +46,7 @@
     <t>AE101</t>
   </si>
   <si>
-    <t>CAMPUSAP</t>
+    <t>AP102</t>
   </si>
   <si>
     <t>black</t>
@@ -784,58 +784,55 @@
     <t>AP101</t>
   </si>
   <si>
-    <t>AP102</t>
-  </si>
-  <si>
     <t>AP103</t>
   </si>
   <si>
+    <t>AP202</t>
+  </si>
+  <si>
     <t>AP201</t>
   </si>
   <si>
-    <t>AP202</t>
-  </si>
-  <si>
     <t>AP203</t>
   </si>
   <si>
+    <t>AP302</t>
+  </si>
+  <si>
     <t>AP301</t>
   </si>
   <si>
-    <t>AP302</t>
-  </si>
-  <si>
     <t>AP303</t>
   </si>
   <si>
+    <t>AP402</t>
+  </si>
+  <si>
     <t>AP401</t>
   </si>
   <si>
-    <t>AP402</t>
-  </si>
-  <si>
     <t>AP403</t>
   </si>
   <si>
     <t>AP404</t>
   </si>
   <si>
+    <t>AP502</t>
+  </si>
+  <si>
     <t>AP501</t>
   </si>
   <si>
-    <t>AP502</t>
-  </si>
-  <si>
     <t>AP503</t>
   </si>
   <si>
     <t>AP504</t>
   </si>
   <si>
+    <t>AP602</t>
+  </si>
+  <si>
     <t>AP601</t>
-  </si>
-  <si>
-    <t>AP602</t>
   </si>
   <si>
     <t>AP603</t>
@@ -5141,7 +5138,7 @@
         <v>50</v>
       </c>
       <c r="C238" s="1">
-        <v>100.0</v>
+        <v>20.0</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>12</v>
@@ -5599,6 +5596,12 @@
       <c r="A271" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="B271" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C271" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D271" s="1" t="s">
         <v>12</v>
       </c>
@@ -5607,6 +5610,12 @@
       <c r="A272" s="2" t="s">
         <v>253</v>
       </c>
+      <c r="B272" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C272" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D272" s="1" t="s">
         <v>12</v>
       </c>
@@ -5615,13 +5624,25 @@
       <c r="A273" s="2" t="s">
         <v>254</v>
       </c>
+      <c r="B273" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C273" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D273" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C274" s="1">
+        <v>5.0</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>12</v>
@@ -5631,13 +5652,25 @@
       <c r="A275" s="2" t="s">
         <v>256</v>
       </c>
+      <c r="B275" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C275" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D275" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>257</v>
+      </c>
+      <c r="C276" s="1">
+        <v>1.0</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>12</v>
@@ -5645,7 +5678,13 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>258</v>
+      </c>
+      <c r="C277" s="1">
+        <v>5.0</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>12</v>
@@ -5655,13 +5694,25 @@
       <c r="A278" s="2" t="s">
         <v>259</v>
       </c>
+      <c r="B278" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C278" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D278" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>260</v>
+      </c>
+      <c r="C279" s="1">
+        <v>1.0</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>12</v>
@@ -5669,7 +5720,13 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B280" s="2" t="s">
         <v>261</v>
+      </c>
+      <c r="C280" s="1">
+        <v>5.0</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>12</v>
@@ -5679,13 +5736,25 @@
       <c r="A281" s="2" t="s">
         <v>262</v>
       </c>
+      <c r="B281" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C281" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D281" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>263</v>
+      </c>
+      <c r="C282" s="1">
+        <v>1.0</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>12</v>
@@ -5693,7 +5762,13 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>264</v>
+      </c>
+      <c r="C283" s="1">
+        <v>5.0</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>12</v>
@@ -5703,13 +5778,25 @@
       <c r="A284" s="2" t="s">
         <v>265</v>
       </c>
+      <c r="B284" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C284" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D284" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>266</v>
+      </c>
+      <c r="C285" s="1">
+        <v>1.0</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>12</v>
@@ -5717,7 +5804,13 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>267</v>
+      </c>
+      <c r="C286" s="1">
+        <v>1.0</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>12</v>
@@ -5725,7 +5818,13 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>268</v>
+      </c>
+      <c r="C287" s="1">
+        <v>5.0</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>12</v>
@@ -5735,13 +5834,25 @@
       <c r="A288" s="2" t="s">
         <v>269</v>
       </c>
+      <c r="B288" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C288" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D288" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>270</v>
+      </c>
+      <c r="C289" s="1">
+        <v>1.0</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>12</v>
@@ -5749,7 +5860,13 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>271</v>
+      </c>
+      <c r="C290" s="1">
+        <v>1.0</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>12</v>
@@ -5757,7 +5874,13 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B291" s="2" t="s">
         <v>272</v>
+      </c>
+      <c r="C291" s="1">
+        <v>5.0</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>12</v>
@@ -5767,13 +5890,25 @@
       <c r="A292" s="2" t="s">
         <v>273</v>
       </c>
+      <c r="B292" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C292" s="1">
+        <v>1.0</v>
+      </c>
       <c r="D292" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>274</v>
+      </c>
+      <c r="C293" s="1">
+        <v>1.0</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>12</v>
@@ -5781,7 +5916,13 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>275</v>
+      </c>
+      <c r="C294" s="1">
+        <v>1.0</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>12</v>
@@ -5792,14 +5933,6 @@
         <v>276</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D296" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Datos/datos grafo salas.xlsx
+++ b/Datos/datos grafo salas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="278">
   <si>
     <t>nodo1</t>
   </si>
@@ -776,6 +776,9 @@
   </si>
   <si>
     <t>AP003</t>
+  </si>
+  <si>
+    <t>lime</t>
   </si>
   <si>
     <t>AP004</t>
@@ -5602,9 +5605,6 @@
       <c r="C271" s="1">
         <v>1.0</v>
       </c>
-      <c r="D271" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
@@ -5617,7 +5617,7 @@
         <v>1.0</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="273">
@@ -5625,13 +5625,13 @@
         <v>254</v>
       </c>
       <c r="B273" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C273" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D273" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="C273" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="274">
@@ -5645,12 +5645,12 @@
         <v>5.0</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>11</v>
@@ -5659,7 +5659,7 @@
         <v>1.0</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="276">
@@ -5667,273 +5667,279 @@
         <v>11</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C276" s="1">
         <v>1.0</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C277" s="1">
         <v>5.0</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B278" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="C278" s="1">
         <v>1.0</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C279" s="1">
         <v>1.0</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C280" s="1">
         <v>5.0</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B281" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="C281" s="1">
         <v>1.0</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C282" s="1">
         <v>1.0</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C283" s="1">
         <v>5.0</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B284" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="C284" s="1">
         <v>1.0</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C285" s="1">
         <v>1.0</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C286" s="1">
         <v>1.0</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C287" s="1">
         <v>5.0</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B288" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="C288" s="1">
         <v>1.0</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C289" s="1">
         <v>1.0</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C290" s="1">
         <v>1.0</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C291" s="1">
         <v>5.0</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B292" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="C292" s="1">
         <v>1.0</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C293" s="1">
         <v>1.0</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C294" s="1">
         <v>1.0</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C295" s="1">
+        <v>5.0</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/Datos/datos grafo salas.xlsx
+++ b/Datos/datos grafo salas.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\IPre\IPre20232Calendario\Datos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57349266-3110-4DA2-87D4-18DFF0E57CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="696" yWindow="3216" windowWidth="21912" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="278">
   <si>
     <t>nodo1</t>
   </si>
@@ -850,32 +859,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -886,7 +897,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -896,48 +907,44 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1127,20 +1134,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y295"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="D272" sqref="D271:D272"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1154,7 +1166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1162,13 +1174,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1176,13 +1188,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1190,13 +1202,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1204,13 +1216,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1218,13 +1230,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1232,13 +1244,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1246,13 +1258,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1260,13 +1272,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1274,13 +1286,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1288,13 +1300,13 @@
         <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1302,13 +1314,13 @@
         <v>15</v>
       </c>
       <c r="C12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1316,13 +1328,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1330,13 +1342,13 @@
         <v>17</v>
       </c>
       <c r="C14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1344,13 +1356,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1358,13 +1370,13 @@
         <v>19</v>
       </c>
       <c r="C16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -1372,13 +1384,13 @@
         <v>21</v>
       </c>
       <c r="C17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1386,13 +1398,13 @@
         <v>21</v>
       </c>
       <c r="C18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1400,13 +1412,13 @@
         <v>23</v>
       </c>
       <c r="C19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -1414,13 +1426,13 @@
         <v>24</v>
       </c>
       <c r="C20" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
@@ -1428,13 +1440,13 @@
         <v>24</v>
       </c>
       <c r="C21" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1442,13 +1454,13 @@
         <v>25</v>
       </c>
       <c r="C22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1456,13 +1468,13 @@
         <v>26</v>
       </c>
       <c r="C23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1470,13 +1482,13 @@
         <v>29</v>
       </c>
       <c r="C24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1484,13 +1496,13 @@
         <v>28</v>
       </c>
       <c r="C25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -1498,13 +1510,13 @@
         <v>30</v>
       </c>
       <c r="C26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1512,13 +1524,13 @@
         <v>29</v>
       </c>
       <c r="C27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -1526,13 +1538,13 @@
         <v>32</v>
       </c>
       <c r="C28" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -1540,13 +1552,13 @@
         <v>17</v>
       </c>
       <c r="C29" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
@@ -1554,13 +1566,13 @@
         <v>27</v>
       </c>
       <c r="C30" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
@@ -1568,13 +1580,13 @@
         <v>31</v>
       </c>
       <c r="C31" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
@@ -1582,13 +1594,13 @@
         <v>34</v>
       </c>
       <c r="C32" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
@@ -1596,13 +1608,13 @@
         <v>35</v>
       </c>
       <c r="C33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
@@ -1610,13 +1622,13 @@
         <v>36</v>
       </c>
       <c r="C34" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
@@ -1624,13 +1636,13 @@
         <v>37</v>
       </c>
       <c r="C35" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
@@ -1638,13 +1650,13 @@
         <v>39</v>
       </c>
       <c r="C36" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -1652,13 +1664,13 @@
         <v>29</v>
       </c>
       <c r="C37" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1666,13 +1678,13 @@
         <v>39</v>
       </c>
       <c r="C38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -1680,13 +1692,13 @@
         <v>40</v>
       </c>
       <c r="C39" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
@@ -1694,13 +1706,13 @@
         <v>35</v>
       </c>
       <c r="C40" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
@@ -1708,13 +1720,13 @@
         <v>42</v>
       </c>
       <c r="C41" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
@@ -1722,13 +1734,13 @@
         <v>43</v>
       </c>
       <c r="C42" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
@@ -1736,13 +1748,13 @@
         <v>44</v>
       </c>
       <c r="C43" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
@@ -1750,13 +1762,13 @@
         <v>45</v>
       </c>
       <c r="C44" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
@@ -1764,13 +1776,13 @@
         <v>46</v>
       </c>
       <c r="C45" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>48</v>
       </c>
@@ -1778,13 +1790,13 @@
         <v>49</v>
       </c>
       <c r="C46" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
@@ -1792,13 +1804,13 @@
         <v>48</v>
       </c>
       <c r="C47" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
@@ -1806,13 +1818,13 @@
         <v>53</v>
       </c>
       <c r="C48" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -1820,13 +1832,13 @@
         <v>48</v>
       </c>
       <c r="C49" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>54</v>
       </c>
@@ -1834,13 +1846,13 @@
         <v>53</v>
       </c>
       <c r="C50" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
@@ -1848,13 +1860,13 @@
         <v>54</v>
       </c>
       <c r="C51" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>55</v>
       </c>
@@ -1862,13 +1874,13 @@
         <v>56</v>
       </c>
       <c r="C52" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>57</v>
       </c>
@@ -1876,13 +1888,13 @@
         <v>58</v>
       </c>
       <c r="C53" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>58</v>
       </c>
@@ -1890,13 +1902,13 @@
         <v>53</v>
       </c>
       <c r="C54" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>59</v>
       </c>
@@ -1904,13 +1916,13 @@
         <v>58</v>
       </c>
       <c r="C55" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>60</v>
       </c>
@@ -1918,13 +1930,13 @@
         <v>59</v>
       </c>
       <c r="C56" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>61</v>
       </c>
@@ -1932,13 +1944,13 @@
         <v>60</v>
       </c>
       <c r="C57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>62</v>
       </c>
@@ -1946,13 +1958,13 @@
         <v>61</v>
       </c>
       <c r="C58" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>63</v>
       </c>
@@ -1960,13 +1972,13 @@
         <v>24</v>
       </c>
       <c r="C59" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>63</v>
       </c>
@@ -1974,13 +1986,13 @@
         <v>64</v>
       </c>
       <c r="C60" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>65</v>
       </c>
@@ -1988,13 +2000,13 @@
         <v>11</v>
       </c>
       <c r="C61" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
@@ -2002,13 +2014,13 @@
         <v>66</v>
       </c>
       <c r="C62" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>66</v>
       </c>
@@ -2016,13 +2028,13 @@
         <v>68</v>
       </c>
       <c r="C63" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>68</v>
       </c>
@@ -2030,13 +2042,13 @@
         <v>69</v>
       </c>
       <c r="C64" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>68</v>
       </c>
@@ -2044,13 +2056,13 @@
         <v>70</v>
       </c>
       <c r="C65" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>71</v>
       </c>
@@ -2058,13 +2070,13 @@
         <v>72</v>
       </c>
       <c r="C66" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>73</v>
       </c>
@@ -2072,13 +2084,13 @@
         <v>71</v>
       </c>
       <c r="C67" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>70</v>
       </c>
@@ -2086,13 +2098,13 @@
         <v>73</v>
       </c>
       <c r="C68" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>72</v>
       </c>
@@ -2100,21 +2112,21 @@
         <v>65</v>
       </c>
       <c r="C69" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B70" s="6"/>
-      <c r="C70" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D70" s="7" t="s">
+      <c r="C70" s="6">
+        <v>0</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E70" s="6"/>
@@ -2139,15 +2151,15 @@
       <c r="X70" s="6"/>
       <c r="Y70" s="6"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B71" s="6"/>
-      <c r="C71" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D71" s="7" t="s">
+      <c r="C71" s="6">
+        <v>0</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E71" s="6"/>
@@ -2172,15 +2184,15 @@
       <c r="X71" s="6"/>
       <c r="Y71" s="6"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B72" s="6"/>
-      <c r="C72" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D72" s="7" t="s">
+      <c r="C72" s="6">
+        <v>0</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E72" s="6"/>
@@ -2205,15 +2217,15 @@
       <c r="X72" s="6"/>
       <c r="Y72" s="6"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B73" s="6"/>
-      <c r="C73" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D73" s="7" t="s">
+      <c r="C73" s="6">
+        <v>0</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E73" s="6"/>
@@ -2238,15 +2250,15 @@
       <c r="X73" s="6"/>
       <c r="Y73" s="6"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B74" s="6"/>
-      <c r="C74" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D74" s="7" t="s">
+      <c r="C74" s="6">
+        <v>0</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E74" s="6"/>
@@ -2271,15 +2283,15 @@
       <c r="X74" s="6"/>
       <c r="Y74" s="6"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B75" s="6"/>
-      <c r="C75" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D75" s="7" t="s">
+      <c r="C75" s="6">
+        <v>0</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E75" s="6"/>
@@ -2304,15 +2316,15 @@
       <c r="X75" s="6"/>
       <c r="Y75" s="6"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B76" s="6"/>
-      <c r="C76" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D76" s="7" t="s">
+      <c r="C76" s="6">
+        <v>0</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E76" s="6"/>
@@ -2337,15 +2349,15 @@
       <c r="X76" s="6"/>
       <c r="Y76" s="6"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B77" s="6"/>
-      <c r="C77" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D77" s="7" t="s">
+      <c r="C77" s="6">
+        <v>0</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E77" s="6"/>
@@ -2370,15 +2382,15 @@
       <c r="X77" s="6"/>
       <c r="Y77" s="6"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B78" s="6"/>
-      <c r="C78" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D78" s="7" t="s">
+      <c r="C78" s="6">
+        <v>0</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E78" s="6"/>
@@ -2403,15 +2415,15 @@
       <c r="X78" s="6"/>
       <c r="Y78" s="6"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B79" s="6"/>
-      <c r="C79" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D79" s="7" t="s">
+      <c r="C79" s="6">
+        <v>0</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E79" s="6"/>
@@ -2436,15 +2448,15 @@
       <c r="X79" s="6"/>
       <c r="Y79" s="6"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B80" s="6"/>
-      <c r="C80" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D80" s="7" t="s">
+      <c r="C80" s="6">
+        <v>0</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E80" s="6"/>
@@ -2469,15 +2481,15 @@
       <c r="X80" s="6"/>
       <c r="Y80" s="6"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B81" s="6"/>
-      <c r="C81" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D81" s="7" t="s">
+      <c r="C81" s="6">
+        <v>0</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E81" s="6"/>
@@ -2502,15 +2514,15 @@
       <c r="X81" s="6"/>
       <c r="Y81" s="6"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B82" s="6"/>
-      <c r="C82" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D82" s="7" t="s">
+      <c r="C82" s="6">
+        <v>0</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E82" s="6"/>
@@ -2535,15 +2547,15 @@
       <c r="X82" s="6"/>
       <c r="Y82" s="6"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B83" s="6"/>
-      <c r="C83" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D83" s="7" t="s">
+      <c r="C83" s="6">
+        <v>0</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E83" s="6"/>
@@ -2568,15 +2580,15 @@
       <c r="X83" s="6"/>
       <c r="Y83" s="6"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B84" s="6"/>
-      <c r="C84" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D84" s="7" t="s">
+      <c r="C84" s="6">
+        <v>0</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E84" s="6"/>
@@ -2601,15 +2613,15 @@
       <c r="X84" s="6"/>
       <c r="Y84" s="6"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B85" s="6"/>
-      <c r="C85" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D85" s="7" t="s">
+      <c r="C85" s="6">
+        <v>0</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E85" s="6"/>
@@ -2634,15 +2646,15 @@
       <c r="X85" s="6"/>
       <c r="Y85" s="6"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B86" s="6"/>
-      <c r="C86" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D86" s="7" t="s">
+      <c r="C86" s="6">
+        <v>0</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="6"/>
@@ -2667,15 +2679,15 @@
       <c r="X86" s="6"/>
       <c r="Y86" s="6"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B87" s="6"/>
-      <c r="C87" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D87" s="7" t="s">
+      <c r="C87" s="6">
+        <v>0</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E87" s="6"/>
@@ -2700,15 +2712,15 @@
       <c r="X87" s="6"/>
       <c r="Y87" s="6"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B88" s="6"/>
-      <c r="C88" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D88" s="7" t="s">
+      <c r="C88" s="6">
+        <v>0</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E88" s="6"/>
@@ -2733,15 +2745,15 @@
       <c r="X88" s="6"/>
       <c r="Y88" s="6"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B89" s="6"/>
-      <c r="C89" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D89" s="7" t="s">
+      <c r="C89" s="6">
+        <v>0</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E89" s="6"/>
@@ -2766,15 +2778,15 @@
       <c r="X89" s="6"/>
       <c r="Y89" s="6"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B90" s="6"/>
-      <c r="C90" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D90" s="7" t="s">
+      <c r="C90" s="6">
+        <v>0</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E90" s="6"/>
@@ -2799,15 +2811,15 @@
       <c r="X90" s="6"/>
       <c r="Y90" s="6"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B91" s="6"/>
-      <c r="C91" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D91" s="7" t="s">
+      <c r="C91" s="6">
+        <v>0</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E91" s="6"/>
@@ -2832,15 +2844,15 @@
       <c r="X91" s="6"/>
       <c r="Y91" s="6"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B92" s="6"/>
-      <c r="C92" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D92" s="7" t="s">
+      <c r="C92" s="6">
+        <v>0</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E92" s="6"/>
@@ -2865,15 +2877,15 @@
       <c r="X92" s="6"/>
       <c r="Y92" s="6"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B93" s="6"/>
-      <c r="C93" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D93" s="7" t="s">
+      <c r="C93" s="6">
+        <v>0</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E93" s="6"/>
@@ -2898,15 +2910,15 @@
       <c r="X93" s="6"/>
       <c r="Y93" s="6"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B94" s="6"/>
-      <c r="C94" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D94" s="7" t="s">
+      <c r="C94" s="6">
+        <v>0</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E94" s="6"/>
@@ -2931,15 +2943,15 @@
       <c r="X94" s="6"/>
       <c r="Y94" s="6"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B95" s="6"/>
-      <c r="C95" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D95" s="7" t="s">
+      <c r="C95" s="6">
+        <v>0</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E95" s="6"/>
@@ -2964,15 +2976,15 @@
       <c r="X95" s="6"/>
       <c r="Y95" s="6"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B96" s="6"/>
-      <c r="C96" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D96" s="7" t="s">
+      <c r="C96" s="6">
+        <v>0</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E96" s="6"/>
@@ -2997,15 +3009,15 @@
       <c r="X96" s="6"/>
       <c r="Y96" s="6"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B97" s="6"/>
-      <c r="C97" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D97" s="7" t="s">
+      <c r="C97" s="6">
+        <v>0</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E97" s="6"/>
@@ -3030,15 +3042,15 @@
       <c r="X97" s="6"/>
       <c r="Y97" s="6"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B98" s="6"/>
-      <c r="C98" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D98" s="7" t="s">
+      <c r="C98" s="6">
+        <v>0</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E98" s="6"/>
@@ -3063,15 +3075,15 @@
       <c r="X98" s="6"/>
       <c r="Y98" s="6"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B99" s="6"/>
-      <c r="C99" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D99" s="7" t="s">
+      <c r="C99" s="6">
+        <v>0</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E99" s="6"/>
@@ -3096,7 +3108,7 @@
       <c r="X99" s="6"/>
       <c r="Y99" s="6"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>104</v>
       </c>
@@ -3104,23 +3116,23 @@
         <v>105</v>
       </c>
       <c r="C100" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C101" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D101" s="7" t="s">
+      <c r="C101" s="6">
+        <v>0</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E101" s="6"/>
@@ -3145,7 +3157,7 @@
       <c r="X101" s="6"/>
       <c r="Y101" s="6"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>108</v>
       </c>
@@ -3153,23 +3165,23 @@
         <v>109</v>
       </c>
       <c r="C102" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D103" s="7" t="s">
+      <c r="C103" s="6">
+        <v>0</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E103" s="6"/>
@@ -3194,7 +3206,7 @@
       <c r="X103" s="6"/>
       <c r="Y103" s="6"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>110</v>
       </c>
@@ -3202,13 +3214,13 @@
         <v>108</v>
       </c>
       <c r="C104" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>110</v>
       </c>
@@ -3216,13 +3228,13 @@
         <v>109</v>
       </c>
       <c r="C105" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>111</v>
       </c>
@@ -3230,13 +3242,13 @@
         <v>110</v>
       </c>
       <c r="C106" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>109</v>
       </c>
@@ -3244,13 +3256,13 @@
         <v>111</v>
       </c>
       <c r="C107" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>112</v>
       </c>
@@ -3258,13 +3270,13 @@
         <v>113</v>
       </c>
       <c r="C108" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>113</v>
       </c>
@@ -3272,13 +3284,13 @@
         <v>109</v>
       </c>
       <c r="C109" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>113</v>
       </c>
@@ -3286,13 +3298,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>114</v>
       </c>
@@ -3300,13 +3312,13 @@
         <v>115</v>
       </c>
       <c r="C111" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>116</v>
       </c>
@@ -3314,13 +3326,13 @@
         <v>112</v>
       </c>
       <c r="C112" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>117</v>
       </c>
@@ -3328,13 +3340,13 @@
         <v>114</v>
       </c>
       <c r="C113" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>118</v>
       </c>
@@ -3342,13 +3354,13 @@
         <v>117</v>
       </c>
       <c r="C114" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>118</v>
       </c>
@@ -3356,23 +3368,23 @@
         <v>104</v>
       </c>
       <c r="C115" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C116" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D116" s="7" t="s">
+      <c r="C116" s="6">
+        <v>0</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E116" s="6"/>
@@ -3397,7 +3409,7 @@
       <c r="X116" s="6"/>
       <c r="Y116" s="6"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>115</v>
       </c>
@@ -3405,13 +3417,13 @@
         <v>120</v>
       </c>
       <c r="C117" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>120</v>
       </c>
@@ -3419,13 +3431,13 @@
         <v>121</v>
       </c>
       <c r="C118" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>121</v>
       </c>
@@ -3433,23 +3445,23 @@
         <v>8</v>
       </c>
       <c r="C119" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C120" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D120" s="7" t="s">
+      <c r="C120" s="6">
+        <v>0</v>
+      </c>
+      <c r="D120" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E120" s="6"/>
@@ -3474,7 +3486,7 @@
       <c r="X120" s="6"/>
       <c r="Y120" s="6"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>122</v>
       </c>
@@ -3482,13 +3494,13 @@
         <v>123</v>
       </c>
       <c r="C121" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>122</v>
       </c>
@@ -3496,13 +3508,13 @@
         <v>125</v>
       </c>
       <c r="C122" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>123</v>
       </c>
@@ -3510,13 +3522,13 @@
         <v>126</v>
       </c>
       <c r="C123" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>126</v>
       </c>
@@ -3524,13 +3536,13 @@
         <v>127</v>
       </c>
       <c r="C124" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>128</v>
       </c>
@@ -3538,13 +3550,13 @@
         <v>127</v>
       </c>
       <c r="C125" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>128</v>
       </c>
@@ -3552,13 +3564,13 @@
         <v>69</v>
       </c>
       <c r="C126" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>129</v>
       </c>
@@ -3566,13 +3578,13 @@
         <v>128</v>
       </c>
       <c r="C127" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>130</v>
       </c>
@@ -3580,13 +3592,13 @@
         <v>129</v>
       </c>
       <c r="C128" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>131</v>
       </c>
@@ -3594,13 +3606,13 @@
         <v>132</v>
       </c>
       <c r="C129" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>131</v>
       </c>
@@ -3608,13 +3620,13 @@
         <v>133</v>
       </c>
       <c r="C130" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>134</v>
       </c>
@@ -3622,13 +3634,13 @@
         <v>131</v>
       </c>
       <c r="C131" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>135</v>
       </c>
@@ -3636,13 +3648,13 @@
         <v>134</v>
       </c>
       <c r="C132" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>136</v>
       </c>
@@ -3650,13 +3662,13 @@
         <v>135</v>
       </c>
       <c r="C133" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>137</v>
       </c>
@@ -3664,13 +3676,13 @@
         <v>125</v>
       </c>
       <c r="C134" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>137</v>
       </c>
@@ -3678,13 +3690,13 @@
         <v>138</v>
       </c>
       <c r="C135" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>137</v>
       </c>
@@ -3692,13 +3704,13 @@
         <v>139</v>
       </c>
       <c r="C136" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>132</v>
       </c>
@@ -3706,13 +3718,13 @@
         <v>125</v>
       </c>
       <c r="C137" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>140</v>
       </c>
@@ -3720,13 +3732,13 @@
         <v>131</v>
       </c>
       <c r="C138" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>141</v>
       </c>
@@ -3734,13 +3746,13 @@
         <v>140</v>
       </c>
       <c r="C139" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>142</v>
       </c>
@@ -3748,13 +3760,13 @@
         <v>141</v>
       </c>
       <c r="C140" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>143</v>
       </c>
@@ -3762,13 +3774,13 @@
         <v>142</v>
       </c>
       <c r="C141" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>144</v>
       </c>
@@ -3776,13 +3788,13 @@
         <v>143</v>
       </c>
       <c r="C142" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>145</v>
       </c>
@@ -3790,13 +3802,13 @@
         <v>144</v>
       </c>
       <c r="C143" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>146</v>
       </c>
@@ -3804,13 +3816,13 @@
         <v>145</v>
       </c>
       <c r="C144" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>146</v>
       </c>
@@ -3818,13 +3830,13 @@
         <v>125</v>
       </c>
       <c r="C145" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>147</v>
       </c>
@@ -3832,13 +3844,13 @@
         <v>133</v>
       </c>
       <c r="C146" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>133</v>
       </c>
@@ -3846,23 +3858,23 @@
         <v>148</v>
       </c>
       <c r="C147" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C148" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D148" s="7" t="s">
+      <c r="C148" s="6">
+        <v>0</v>
+      </c>
+      <c r="D148" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E148" s="6"/>
@@ -3887,17 +3899,17 @@
       <c r="X148" s="6"/>
       <c r="Y148" s="6"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C149" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D149" s="7" t="s">
+      <c r="C149" s="6">
+        <v>0</v>
+      </c>
+      <c r="D149" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E149" s="6"/>
@@ -3922,7 +3934,7 @@
       <c r="X149" s="6"/>
       <c r="Y149" s="6"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>138</v>
       </c>
@@ -3930,13 +3942,13 @@
         <v>69</v>
       </c>
       <c r="C150" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>69</v>
       </c>
@@ -3944,13 +3956,13 @@
         <v>151</v>
       </c>
       <c r="C151" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>69</v>
       </c>
@@ -3958,13 +3970,13 @@
         <v>11</v>
       </c>
       <c r="C152" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
@@ -3972,13 +3984,13 @@
         <v>153</v>
       </c>
       <c r="C153" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
@@ -3986,13 +3998,13 @@
         <v>155</v>
       </c>
       <c r="C154" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>155</v>
       </c>
@@ -4000,13 +4012,13 @@
         <v>64</v>
       </c>
       <c r="C155" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>156</v>
       </c>
@@ -4014,13 +4026,13 @@
         <v>157</v>
       </c>
       <c r="C156" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
@@ -4028,13 +4040,13 @@
         <v>158</v>
       </c>
       <c r="C157" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
@@ -4042,13 +4054,13 @@
         <v>159</v>
       </c>
       <c r="C158" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>159</v>
       </c>
@@ -4056,13 +4068,13 @@
         <v>160</v>
       </c>
       <c r="C159" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>160</v>
       </c>
@@ -4070,13 +4082,13 @@
         <v>161</v>
       </c>
       <c r="C160" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>158</v>
       </c>
@@ -4084,13 +4096,13 @@
         <v>162</v>
       </c>
       <c r="C161" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>158</v>
       </c>
@@ -4098,13 +4110,13 @@
         <v>163</v>
       </c>
       <c r="C162" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
@@ -4112,13 +4124,13 @@
         <v>164</v>
       </c>
       <c r="C163" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>164</v>
       </c>
@@ -4126,13 +4138,13 @@
         <v>165</v>
       </c>
       <c r="C164" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>165</v>
       </c>
@@ -4140,13 +4152,13 @@
         <v>166</v>
       </c>
       <c r="C165" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>166</v>
       </c>
@@ -4154,13 +4166,13 @@
         <v>167</v>
       </c>
       <c r="C166" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>167</v>
       </c>
@@ -4168,13 +4180,13 @@
         <v>168</v>
       </c>
       <c r="C167" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>168</v>
       </c>
@@ -4182,13 +4194,13 @@
         <v>161</v>
       </c>
       <c r="C168" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>161</v>
       </c>
@@ -4196,13 +4208,13 @@
         <v>169</v>
       </c>
       <c r="C169" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>163</v>
       </c>
@@ -4210,13 +4222,13 @@
         <v>170</v>
       </c>
       <c r="C170" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>163</v>
       </c>
@@ -4224,13 +4236,13 @@
         <v>171</v>
       </c>
       <c r="C171" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>170</v>
       </c>
@@ -4238,13 +4250,13 @@
         <v>172</v>
       </c>
       <c r="C172" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
@@ -4252,13 +4264,13 @@
         <v>173</v>
       </c>
       <c r="C173" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
@@ -4266,13 +4278,13 @@
         <v>174</v>
       </c>
       <c r="C174" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
@@ -4280,13 +4292,13 @@
         <v>175</v>
       </c>
       <c r="C175" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
@@ -4294,13 +4306,13 @@
         <v>169</v>
       </c>
       <c r="C176" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>169</v>
       </c>
@@ -4308,13 +4320,13 @@
         <v>176</v>
       </c>
       <c r="C177" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>171</v>
       </c>
@@ -4322,13 +4334,13 @@
         <v>177</v>
       </c>
       <c r="C178" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>177</v>
       </c>
@@ -4336,13 +4348,13 @@
         <v>178</v>
       </c>
       <c r="C179" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>178</v>
       </c>
@@ -4350,13 +4362,13 @@
         <v>179</v>
       </c>
       <c r="C180" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>179</v>
       </c>
@@ -4364,13 +4376,13 @@
         <v>180</v>
       </c>
       <c r="C181" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>180</v>
       </c>
@@ -4378,13 +4390,13 @@
         <v>181</v>
       </c>
       <c r="C182" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>181</v>
       </c>
@@ -4392,13 +4404,13 @@
         <v>182</v>
       </c>
       <c r="C183" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>182</v>
       </c>
@@ -4406,13 +4418,13 @@
         <v>183</v>
       </c>
       <c r="C184" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>183</v>
       </c>
@@ -4420,13 +4432,13 @@
         <v>184</v>
       </c>
       <c r="C185" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>184</v>
       </c>
@@ -4434,13 +4446,13 @@
         <v>185</v>
       </c>
       <c r="C186" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>185</v>
       </c>
@@ -4448,23 +4460,23 @@
         <v>176</v>
       </c>
       <c r="C187" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>176</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C188" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D188" s="7" t="s">
+      <c r="C188" s="6">
+        <v>0</v>
+      </c>
+      <c r="D188" s="6" t="s">
         <v>154</v>
       </c>
       <c r="E188" s="6"/>
@@ -4489,7 +4501,7 @@
       <c r="X188" s="6"/>
       <c r="Y188" s="6"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>64</v>
       </c>
@@ -4497,13 +4509,13 @@
         <v>160</v>
       </c>
       <c r="C189" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>64</v>
       </c>
@@ -4511,13 +4523,13 @@
         <v>24</v>
       </c>
       <c r="C190" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>187</v>
       </c>
@@ -4525,13 +4537,13 @@
         <v>156</v>
       </c>
       <c r="C191" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>187</v>
       </c>
@@ -4539,13 +4551,13 @@
         <v>152</v>
       </c>
       <c r="C192" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>187</v>
       </c>
@@ -4553,13 +4565,13 @@
         <v>188</v>
       </c>
       <c r="C193" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>189</v>
       </c>
@@ -4567,13 +4579,13 @@
         <v>151</v>
       </c>
       <c r="C194" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>190</v>
       </c>
@@ -4581,13 +4593,13 @@
         <v>189</v>
       </c>
       <c r="C195" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>191</v>
       </c>
@@ -4595,13 +4607,13 @@
         <v>190</v>
       </c>
       <c r="C196" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>192</v>
       </c>
@@ -4609,57 +4621,57 @@
         <v>191</v>
       </c>
       <c r="C197" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C198" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C199" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C200" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C201" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>139</v>
       </c>
@@ -4667,13 +4679,13 @@
         <v>197</v>
       </c>
       <c r="C202" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>197</v>
       </c>
@@ -4681,13 +4693,13 @@
         <v>198</v>
       </c>
       <c r="C203" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>198</v>
       </c>
@@ -4695,13 +4707,13 @@
         <v>192</v>
       </c>
       <c r="C204" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>199</v>
       </c>
@@ -4709,13 +4721,13 @@
         <v>200</v>
       </c>
       <c r="C205" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>200</v>
       </c>
@@ -4723,13 +4735,13 @@
         <v>202</v>
       </c>
       <c r="C206" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>202</v>
       </c>
@@ -4737,13 +4749,13 @@
         <v>203</v>
       </c>
       <c r="C207" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>203</v>
       </c>
@@ -4751,13 +4763,13 @@
         <v>188</v>
       </c>
       <c r="C208" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>202</v>
       </c>
@@ -4765,13 +4777,13 @@
         <v>199</v>
       </c>
       <c r="C209" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>200</v>
       </c>
@@ -4779,13 +4791,13 @@
         <v>203</v>
       </c>
       <c r="C210" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>188</v>
       </c>
@@ -4793,13 +4805,13 @@
         <v>199</v>
       </c>
       <c r="C211" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>204</v>
       </c>
@@ -4807,13 +4819,13 @@
         <v>205</v>
       </c>
       <c r="C212" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>205</v>
       </c>
@@ -4821,13 +4833,13 @@
         <v>206</v>
       </c>
       <c r="C213" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>206</v>
       </c>
@@ -4835,13 +4847,13 @@
         <v>207</v>
       </c>
       <c r="C214" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>207</v>
       </c>
@@ -4849,13 +4861,13 @@
         <v>208</v>
       </c>
       <c r="C215" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>206</v>
       </c>
@@ -4863,13 +4875,13 @@
         <v>204</v>
       </c>
       <c r="C216" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>207</v>
       </c>
@@ -4877,13 +4889,13 @@
         <v>205</v>
       </c>
       <c r="C217" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>208</v>
       </c>
@@ -4891,13 +4903,13 @@
         <v>204</v>
       </c>
       <c r="C218" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>208</v>
       </c>
@@ -4905,13 +4917,13 @@
         <v>188</v>
       </c>
       <c r="C219" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>24</v>
       </c>
@@ -4919,13 +4931,13 @@
         <v>208</v>
       </c>
       <c r="C220" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
         <v>24</v>
       </c>
@@ -4933,13 +4945,13 @@
         <v>188</v>
       </c>
       <c r="C221" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>209</v>
       </c>
@@ -4947,13 +4959,13 @@
         <v>114</v>
       </c>
       <c r="C222" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>210</v>
       </c>
@@ -4961,13 +4973,13 @@
         <v>209</v>
       </c>
       <c r="C223" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>211</v>
       </c>
@@ -4975,13 +4987,13 @@
         <v>210</v>
       </c>
       <c r="C224" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>212</v>
       </c>
@@ -4989,13 +5001,13 @@
         <v>211</v>
       </c>
       <c r="C225" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>213</v>
       </c>
@@ -5003,13 +5015,13 @@
         <v>212</v>
       </c>
       <c r="C226" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>213</v>
       </c>
@@ -5017,123 +5029,123 @@
         <v>64</v>
       </c>
       <c r="C227" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C228" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>215</v>
       </c>
       <c r="C229" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C230" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C231" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>218</v>
       </c>
       <c r="C232" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C233" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C234" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C235" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C236" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C237" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>224</v>
       </c>
@@ -5141,13 +5153,13 @@
         <v>50</v>
       </c>
       <c r="C238" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>225</v>
       </c>
@@ -5155,13 +5167,13 @@
         <v>224</v>
       </c>
       <c r="C239" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>226</v>
       </c>
@@ -5169,13 +5181,13 @@
         <v>225</v>
       </c>
       <c r="C240" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>56</v>
       </c>
@@ -5183,13 +5195,13 @@
         <v>227</v>
       </c>
       <c r="C241" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>227</v>
       </c>
@@ -5197,13 +5209,13 @@
         <v>228</v>
       </c>
       <c r="C242" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>228</v>
       </c>
@@ -5211,13 +5223,13 @@
         <v>224</v>
       </c>
       <c r="C243" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>229</v>
       </c>
@@ -5225,13 +5237,13 @@
         <v>228</v>
       </c>
       <c r="C244" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>230</v>
       </c>
@@ -5239,13 +5251,13 @@
         <v>231</v>
       </c>
       <c r="C245" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>231</v>
       </c>
@@ -5253,13 +5265,13 @@
         <v>232</v>
       </c>
       <c r="C246" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>232</v>
       </c>
@@ -5267,13 +5279,13 @@
         <v>228</v>
       </c>
       <c r="C247" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>233</v>
       </c>
@@ -5281,13 +5293,13 @@
         <v>232</v>
       </c>
       <c r="C248" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>234</v>
       </c>
@@ -5295,13 +5307,13 @@
         <v>235</v>
       </c>
       <c r="C249" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>235</v>
       </c>
@@ -5309,13 +5321,13 @@
         <v>236</v>
       </c>
       <c r="C250" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>236</v>
       </c>
@@ -5323,13 +5335,13 @@
         <v>232</v>
       </c>
       <c r="C251" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>237</v>
       </c>
@@ -5337,13 +5349,13 @@
         <v>236</v>
       </c>
       <c r="C252" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>238</v>
       </c>
@@ -5351,13 +5363,13 @@
         <v>237</v>
       </c>
       <c r="C253" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>238</v>
       </c>
@@ -5365,13 +5377,13 @@
         <v>233</v>
       </c>
       <c r="C254" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
         <v>239</v>
       </c>
@@ -5379,13 +5391,13 @@
         <v>224</v>
       </c>
       <c r="C255" s="1">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>239</v>
       </c>
@@ -5393,13 +5405,13 @@
         <v>133</v>
       </c>
       <c r="C256" s="1">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
         <v>240</v>
       </c>
@@ -5407,13 +5419,13 @@
         <v>23</v>
       </c>
       <c r="C257" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>240</v>
       </c>
@@ -5421,13 +5433,13 @@
         <v>241</v>
       </c>
       <c r="C258" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>241</v>
       </c>
@@ -5435,13 +5447,13 @@
         <v>243</v>
       </c>
       <c r="C259" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>243</v>
       </c>
@@ -5449,13 +5461,13 @@
         <v>244</v>
       </c>
       <c r="C260" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>244</v>
       </c>
@@ -5463,13 +5475,13 @@
         <v>49</v>
       </c>
       <c r="C261" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
         <v>49</v>
       </c>
@@ -5477,13 +5489,13 @@
         <v>33</v>
       </c>
       <c r="C262" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>245</v>
       </c>
@@ -5491,13 +5503,13 @@
         <v>240</v>
       </c>
       <c r="C263" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>245</v>
       </c>
@@ -5505,13 +5517,13 @@
         <v>246</v>
       </c>
       <c r="C264" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>246</v>
       </c>
@@ -5519,13 +5531,13 @@
         <v>247</v>
       </c>
       <c r="C265" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>247</v>
       </c>
@@ -5533,13 +5545,13 @@
         <v>248</v>
       </c>
       <c r="C266" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>248</v>
       </c>
@@ -5547,13 +5559,13 @@
         <v>249</v>
       </c>
       <c r="C267" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>249</v>
       </c>
@@ -5561,13 +5573,13 @@
         <v>250</v>
       </c>
       <c r="C268" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>250</v>
       </c>
@@ -5575,13 +5587,13 @@
         <v>251</v>
       </c>
       <c r="C269" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>251</v>
       </c>
@@ -5589,13 +5601,13 @@
         <v>49</v>
       </c>
       <c r="C270" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>252</v>
       </c>
@@ -5603,10 +5615,13 @@
         <v>253</v>
       </c>
       <c r="C271" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="272">
+        <v>1</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>253</v>
       </c>
@@ -5614,13 +5629,13 @@
         <v>254</v>
       </c>
       <c r="C272" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>254</v>
       </c>
@@ -5628,13 +5643,13 @@
         <v>256</v>
       </c>
       <c r="C273" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>254</v>
       </c>
@@ -5642,13 +5657,13 @@
         <v>11</v>
       </c>
       <c r="C274" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>257</v>
       </c>
@@ -5656,13 +5671,13 @@
         <v>11</v>
       </c>
       <c r="C275" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>11</v>
       </c>
@@ -5670,13 +5685,13 @@
         <v>258</v>
       </c>
       <c r="C276" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>258</v>
       </c>
@@ -5684,13 +5699,13 @@
         <v>259</v>
       </c>
       <c r="C277" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>260</v>
       </c>
@@ -5698,13 +5713,13 @@
         <v>259</v>
       </c>
       <c r="C278" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>259</v>
       </c>
@@ -5712,13 +5727,13 @@
         <v>261</v>
       </c>
       <c r="C279" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>261</v>
       </c>
@@ -5726,13 +5741,13 @@
         <v>262</v>
       </c>
       <c r="C280" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>263</v>
       </c>
@@ -5740,13 +5755,13 @@
         <v>262</v>
       </c>
       <c r="C281" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>262</v>
       </c>
@@ -5754,13 +5769,13 @@
         <v>264</v>
       </c>
       <c r="C282" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>264</v>
       </c>
@@ -5768,13 +5783,13 @@
         <v>265</v>
       </c>
       <c r="C283" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>266</v>
       </c>
@@ -5782,13 +5797,13 @@
         <v>265</v>
       </c>
       <c r="C284" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>265</v>
       </c>
@@ -5796,13 +5811,13 @@
         <v>267</v>
       </c>
       <c r="C285" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>267</v>
       </c>
@@ -5810,13 +5825,13 @@
         <v>268</v>
       </c>
       <c r="C286" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>267</v>
       </c>
@@ -5824,13 +5839,13 @@
         <v>269</v>
       </c>
       <c r="C287" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>270</v>
       </c>
@@ -5838,13 +5853,13 @@
         <v>269</v>
       </c>
       <c r="C288" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>269</v>
       </c>
@@ -5852,13 +5867,13 @@
         <v>271</v>
       </c>
       <c r="C289" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>271</v>
       </c>
@@ -5866,13 +5881,13 @@
         <v>272</v>
       </c>
       <c r="C290" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>271</v>
       </c>
@@ -5880,13 +5895,13 @@
         <v>273</v>
       </c>
       <c r="C291" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>274</v>
       </c>
@@ -5894,13 +5909,13 @@
         <v>273</v>
       </c>
       <c r="C292" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>273</v>
       </c>
@@ -5908,13 +5923,13 @@
         <v>275</v>
       </c>
       <c r="C293" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>275</v>
       </c>
@@ -5922,13 +5937,13 @@
         <v>276</v>
       </c>
       <c r="C294" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>277</v>
       </c>
@@ -5936,13 +5951,13 @@
         <v>252</v>
       </c>
       <c r="C295" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>255</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Datos/datos grafo salas.xlsx
+++ b/Datos/datos grafo salas.xlsx
@@ -1,21 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\IPre\IPre20232Calendario\Datos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57349266-3110-4DA2-87D4-18DFF0E57CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="696" yWindow="3216" windowWidth="21912" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -784,10 +775,10 @@
     <t>AP002</t>
   </si>
   <si>
+    <t>lime</t>
+  </si>
+  <si>
     <t>AP003</t>
-  </si>
-  <si>
-    <t>lime</t>
   </si>
   <si>
     <t>AP004</t>
@@ -859,34 +850,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="5">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -897,7 +886,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -907,44 +896,48 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+  <cellXfs count="8">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1134,25 +1127,20 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="D272" sqref="D271:D272"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +1154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1174,13 +1162,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1188,13 +1176,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1202,13 +1190,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1216,13 +1204,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1230,13 +1218,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1244,13 +1232,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1258,13 +1246,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="1">
-        <v>100</v>
+        <v>50.0</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1272,13 +1260,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1286,13 +1274,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1300,13 +1288,13 @@
         <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1314,13 +1302,13 @@
         <v>15</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1328,13 +1316,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1342,13 +1330,13 @@
         <v>17</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1356,13 +1344,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1370,13 +1358,13 @@
         <v>19</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -1384,13 +1372,13 @@
         <v>21</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1398,13 +1386,13 @@
         <v>21</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1412,13 +1400,13 @@
         <v>23</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -1426,13 +1414,13 @@
         <v>24</v>
       </c>
       <c r="C20" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
@@ -1440,13 +1428,13 @@
         <v>24</v>
       </c>
       <c r="C21" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1454,13 +1442,13 @@
         <v>25</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1468,13 +1456,13 @@
         <v>26</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1482,13 +1470,13 @@
         <v>29</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1496,13 +1484,13 @@
         <v>28</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -1510,13 +1498,13 @@
         <v>30</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1524,13 +1512,13 @@
         <v>29</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -1538,13 +1526,13 @@
         <v>32</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -1552,13 +1540,13 @@
         <v>17</v>
       </c>
       <c r="C29" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
@@ -1566,13 +1554,13 @@
         <v>27</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
@@ -1580,13 +1568,13 @@
         <v>31</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
@@ -1594,13 +1582,13 @@
         <v>34</v>
       </c>
       <c r="C32" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
@@ -1608,13 +1596,13 @@
         <v>35</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
@@ -1622,13 +1610,13 @@
         <v>36</v>
       </c>
       <c r="C34" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
@@ -1636,13 +1624,13 @@
         <v>37</v>
       </c>
       <c r="C35" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
@@ -1650,13 +1638,13 @@
         <v>39</v>
       </c>
       <c r="C36" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -1664,13 +1652,13 @@
         <v>29</v>
       </c>
       <c r="C37" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1678,13 +1666,13 @@
         <v>39</v>
       </c>
       <c r="C38" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -1692,13 +1680,13 @@
         <v>40</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
@@ -1706,13 +1694,13 @@
         <v>35</v>
       </c>
       <c r="C40" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
@@ -1720,13 +1708,13 @@
         <v>42</v>
       </c>
       <c r="C41" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
@@ -1734,13 +1722,13 @@
         <v>43</v>
       </c>
       <c r="C42" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
@@ -1748,13 +1736,13 @@
         <v>44</v>
       </c>
       <c r="C43" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
@@ -1762,13 +1750,13 @@
         <v>45</v>
       </c>
       <c r="C44" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
@@ -1776,13 +1764,13 @@
         <v>46</v>
       </c>
       <c r="C45" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46">
       <c r="A46" s="3" t="s">
         <v>48</v>
       </c>
@@ -1790,13 +1778,13 @@
         <v>49</v>
       </c>
       <c r="C46" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47">
       <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
@@ -1804,13 +1792,13 @@
         <v>48</v>
       </c>
       <c r="C47" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48">
       <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
@@ -1818,13 +1806,13 @@
         <v>53</v>
       </c>
       <c r="C48" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -1832,13 +1820,13 @@
         <v>48</v>
       </c>
       <c r="C49" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50">
       <c r="A50" s="2" t="s">
         <v>54</v>
       </c>
@@ -1846,13 +1834,13 @@
         <v>53</v>
       </c>
       <c r="C50" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51">
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
@@ -1860,13 +1848,13 @@
         <v>54</v>
       </c>
       <c r="C51" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52">
       <c r="A52" s="3" t="s">
         <v>55</v>
       </c>
@@ -1874,13 +1862,13 @@
         <v>56</v>
       </c>
       <c r="C52" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53">
       <c r="A53" s="2" t="s">
         <v>57</v>
       </c>
@@ -1888,13 +1876,13 @@
         <v>58</v>
       </c>
       <c r="C53" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54">
       <c r="A54" s="2" t="s">
         <v>58</v>
       </c>
@@ -1902,13 +1890,13 @@
         <v>53</v>
       </c>
       <c r="C54" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55">
       <c r="A55" s="2" t="s">
         <v>59</v>
       </c>
@@ -1916,13 +1904,13 @@
         <v>58</v>
       </c>
       <c r="C55" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56">
       <c r="A56" s="2" t="s">
         <v>60</v>
       </c>
@@ -1930,13 +1918,13 @@
         <v>59</v>
       </c>
       <c r="C56" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57">
       <c r="A57" s="2" t="s">
         <v>61</v>
       </c>
@@ -1944,13 +1932,13 @@
         <v>60</v>
       </c>
       <c r="C57" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58">
       <c r="A58" s="2" t="s">
         <v>62</v>
       </c>
@@ -1958,13 +1946,13 @@
         <v>61</v>
       </c>
       <c r="C58" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59">
       <c r="A59" s="3" t="s">
         <v>63</v>
       </c>
@@ -1972,13 +1960,13 @@
         <v>24</v>
       </c>
       <c r="C59" s="1">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60">
       <c r="A60" s="3" t="s">
         <v>63</v>
       </c>
@@ -1986,13 +1974,13 @@
         <v>64</v>
       </c>
       <c r="C60" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61">
       <c r="A61" s="3" t="s">
         <v>65</v>
       </c>
@@ -2000,13 +1988,13 @@
         <v>11</v>
       </c>
       <c r="C61" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62">
       <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
@@ -2014,13 +2002,13 @@
         <v>66</v>
       </c>
       <c r="C62" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63">
       <c r="A63" s="2" t="s">
         <v>66</v>
       </c>
@@ -2028,13 +2016,13 @@
         <v>68</v>
       </c>
       <c r="C63" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64">
       <c r="A64" s="3" t="s">
         <v>68</v>
       </c>
@@ -2042,13 +2030,13 @@
         <v>69</v>
       </c>
       <c r="C64" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65">
       <c r="A65" s="2" t="s">
         <v>68</v>
       </c>
@@ -2056,13 +2044,13 @@
         <v>70</v>
       </c>
       <c r="C65" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66">
       <c r="A66" s="2" t="s">
         <v>71</v>
       </c>
@@ -2070,13 +2058,13 @@
         <v>72</v>
       </c>
       <c r="C66" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67">
       <c r="A67" s="2" t="s">
         <v>73</v>
       </c>
@@ -2084,13 +2072,13 @@
         <v>71</v>
       </c>
       <c r="C67" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68">
       <c r="A68" s="2" t="s">
         <v>70</v>
       </c>
@@ -2098,13 +2086,13 @@
         <v>73</v>
       </c>
       <c r="C68" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69">
       <c r="A69" s="2" t="s">
         <v>72</v>
       </c>
@@ -2112,21 +2100,21 @@
         <v>65</v>
       </c>
       <c r="C69" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70">
       <c r="A70" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B70" s="6"/>
-      <c r="C70" s="6">
-        <v>0</v>
-      </c>
-      <c r="D70" s="6" t="s">
+      <c r="C70" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E70" s="6"/>
@@ -2151,15 +2139,15 @@
       <c r="X70" s="6"/>
       <c r="Y70" s="6"/>
     </row>
-    <row r="71" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71">
       <c r="A71" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B71" s="6"/>
-      <c r="C71" s="6">
-        <v>0</v>
-      </c>
-      <c r="D71" s="6" t="s">
+      <c r="C71" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E71" s="6"/>
@@ -2184,15 +2172,15 @@
       <c r="X71" s="6"/>
       <c r="Y71" s="6"/>
     </row>
-    <row r="72" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72">
       <c r="A72" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B72" s="6"/>
-      <c r="C72" s="6">
-        <v>0</v>
-      </c>
-      <c r="D72" s="6" t="s">
+      <c r="C72" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E72" s="6"/>
@@ -2217,15 +2205,15 @@
       <c r="X72" s="6"/>
       <c r="Y72" s="6"/>
     </row>
-    <row r="73" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73">
       <c r="A73" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B73" s="6"/>
-      <c r="C73" s="6">
-        <v>0</v>
-      </c>
-      <c r="D73" s="6" t="s">
+      <c r="C73" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E73" s="6"/>
@@ -2250,15 +2238,15 @@
       <c r="X73" s="6"/>
       <c r="Y73" s="6"/>
     </row>
-    <row r="74" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74">
       <c r="A74" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B74" s="6"/>
-      <c r="C74" s="6">
-        <v>0</v>
-      </c>
-      <c r="D74" s="6" t="s">
+      <c r="C74" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E74" s="6"/>
@@ -2283,15 +2271,15 @@
       <c r="X74" s="6"/>
       <c r="Y74" s="6"/>
     </row>
-    <row r="75" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75">
       <c r="A75" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B75" s="6"/>
-      <c r="C75" s="6">
-        <v>0</v>
-      </c>
-      <c r="D75" s="6" t="s">
+      <c r="C75" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E75" s="6"/>
@@ -2316,15 +2304,15 @@
       <c r="X75" s="6"/>
       <c r="Y75" s="6"/>
     </row>
-    <row r="76" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76">
       <c r="A76" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B76" s="6"/>
-      <c r="C76" s="6">
-        <v>0</v>
-      </c>
-      <c r="D76" s="6" t="s">
+      <c r="C76" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E76" s="6"/>
@@ -2349,15 +2337,15 @@
       <c r="X76" s="6"/>
       <c r="Y76" s="6"/>
     </row>
-    <row r="77" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77">
       <c r="A77" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B77" s="6"/>
-      <c r="C77" s="6">
-        <v>0</v>
-      </c>
-      <c r="D77" s="6" t="s">
+      <c r="C77" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E77" s="6"/>
@@ -2382,15 +2370,15 @@
       <c r="X77" s="6"/>
       <c r="Y77" s="6"/>
     </row>
-    <row r="78" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78">
       <c r="A78" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B78" s="6"/>
-      <c r="C78" s="6">
-        <v>0</v>
-      </c>
-      <c r="D78" s="6" t="s">
+      <c r="C78" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E78" s="6"/>
@@ -2415,15 +2403,15 @@
       <c r="X78" s="6"/>
       <c r="Y78" s="6"/>
     </row>
-    <row r="79" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79">
       <c r="A79" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B79" s="6"/>
-      <c r="C79" s="6">
-        <v>0</v>
-      </c>
-      <c r="D79" s="6" t="s">
+      <c r="C79" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E79" s="6"/>
@@ -2448,15 +2436,15 @@
       <c r="X79" s="6"/>
       <c r="Y79" s="6"/>
     </row>
-    <row r="80" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80">
       <c r="A80" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B80" s="6"/>
-      <c r="C80" s="6">
-        <v>0</v>
-      </c>
-      <c r="D80" s="6" t="s">
+      <c r="C80" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E80" s="6"/>
@@ -2481,15 +2469,15 @@
       <c r="X80" s="6"/>
       <c r="Y80" s="6"/>
     </row>
-    <row r="81" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81">
       <c r="A81" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B81" s="6"/>
-      <c r="C81" s="6">
-        <v>0</v>
-      </c>
-      <c r="D81" s="6" t="s">
+      <c r="C81" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E81" s="6"/>
@@ -2514,15 +2502,15 @@
       <c r="X81" s="6"/>
       <c r="Y81" s="6"/>
     </row>
-    <row r="82" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82">
       <c r="A82" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B82" s="6"/>
-      <c r="C82" s="6">
-        <v>0</v>
-      </c>
-      <c r="D82" s="6" t="s">
+      <c r="C82" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E82" s="6"/>
@@ -2547,15 +2535,15 @@
       <c r="X82" s="6"/>
       <c r="Y82" s="6"/>
     </row>
-    <row r="83" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83">
       <c r="A83" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B83" s="6"/>
-      <c r="C83" s="6">
-        <v>0</v>
-      </c>
-      <c r="D83" s="6" t="s">
+      <c r="C83" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E83" s="6"/>
@@ -2580,15 +2568,15 @@
       <c r="X83" s="6"/>
       <c r="Y83" s="6"/>
     </row>
-    <row r="84" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84">
       <c r="A84" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B84" s="6"/>
-      <c r="C84" s="6">
-        <v>0</v>
-      </c>
-      <c r="D84" s="6" t="s">
+      <c r="C84" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E84" s="6"/>
@@ -2613,15 +2601,15 @@
       <c r="X84" s="6"/>
       <c r="Y84" s="6"/>
     </row>
-    <row r="85" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85">
       <c r="A85" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B85" s="6"/>
-      <c r="C85" s="6">
-        <v>0</v>
-      </c>
-      <c r="D85" s="6" t="s">
+      <c r="C85" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E85" s="6"/>
@@ -2646,15 +2634,15 @@
       <c r="X85" s="6"/>
       <c r="Y85" s="6"/>
     </row>
-    <row r="86" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86">
       <c r="A86" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B86" s="6"/>
-      <c r="C86" s="6">
-        <v>0</v>
-      </c>
-      <c r="D86" s="6" t="s">
+      <c r="C86" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="6"/>
@@ -2679,15 +2667,15 @@
       <c r="X86" s="6"/>
       <c r="Y86" s="6"/>
     </row>
-    <row r="87" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87">
       <c r="A87" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B87" s="6"/>
-      <c r="C87" s="6">
-        <v>0</v>
-      </c>
-      <c r="D87" s="6" t="s">
+      <c r="C87" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E87" s="6"/>
@@ -2712,15 +2700,15 @@
       <c r="X87" s="6"/>
       <c r="Y87" s="6"/>
     </row>
-    <row r="88" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88">
       <c r="A88" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B88" s="6"/>
-      <c r="C88" s="6">
-        <v>0</v>
-      </c>
-      <c r="D88" s="6" t="s">
+      <c r="C88" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E88" s="6"/>
@@ -2745,15 +2733,15 @@
       <c r="X88" s="6"/>
       <c r="Y88" s="6"/>
     </row>
-    <row r="89" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89">
       <c r="A89" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B89" s="6"/>
-      <c r="C89" s="6">
-        <v>0</v>
-      </c>
-      <c r="D89" s="6" t="s">
+      <c r="C89" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E89" s="6"/>
@@ -2778,15 +2766,15 @@
       <c r="X89" s="6"/>
       <c r="Y89" s="6"/>
     </row>
-    <row r="90" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90">
       <c r="A90" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B90" s="6"/>
-      <c r="C90" s="6">
-        <v>0</v>
-      </c>
-      <c r="D90" s="6" t="s">
+      <c r="C90" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E90" s="6"/>
@@ -2811,15 +2799,15 @@
       <c r="X90" s="6"/>
       <c r="Y90" s="6"/>
     </row>
-    <row r="91" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91">
       <c r="A91" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B91" s="6"/>
-      <c r="C91" s="6">
-        <v>0</v>
-      </c>
-      <c r="D91" s="6" t="s">
+      <c r="C91" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E91" s="6"/>
@@ -2844,15 +2832,15 @@
       <c r="X91" s="6"/>
       <c r="Y91" s="6"/>
     </row>
-    <row r="92" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92">
       <c r="A92" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B92" s="6"/>
-      <c r="C92" s="6">
-        <v>0</v>
-      </c>
-      <c r="D92" s="6" t="s">
+      <c r="C92" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E92" s="6"/>
@@ -2877,15 +2865,15 @@
       <c r="X92" s="6"/>
       <c r="Y92" s="6"/>
     </row>
-    <row r="93" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93">
       <c r="A93" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B93" s="6"/>
-      <c r="C93" s="6">
-        <v>0</v>
-      </c>
-      <c r="D93" s="6" t="s">
+      <c r="C93" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E93" s="6"/>
@@ -2910,15 +2898,15 @@
       <c r="X93" s="6"/>
       <c r="Y93" s="6"/>
     </row>
-    <row r="94" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94">
       <c r="A94" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B94" s="6"/>
-      <c r="C94" s="6">
-        <v>0</v>
-      </c>
-      <c r="D94" s="6" t="s">
+      <c r="C94" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E94" s="6"/>
@@ -2943,15 +2931,15 @@
       <c r="X94" s="6"/>
       <c r="Y94" s="6"/>
     </row>
-    <row r="95" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95">
       <c r="A95" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B95" s="6"/>
-      <c r="C95" s="6">
-        <v>0</v>
-      </c>
-      <c r="D95" s="6" t="s">
+      <c r="C95" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E95" s="6"/>
@@ -2976,15 +2964,15 @@
       <c r="X95" s="6"/>
       <c r="Y95" s="6"/>
     </row>
-    <row r="96" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96">
       <c r="A96" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B96" s="6"/>
-      <c r="C96" s="6">
-        <v>0</v>
-      </c>
-      <c r="D96" s="6" t="s">
+      <c r="C96" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D96" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E96" s="6"/>
@@ -3009,15 +2997,15 @@
       <c r="X96" s="6"/>
       <c r="Y96" s="6"/>
     </row>
-    <row r="97" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97">
       <c r="A97" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B97" s="6"/>
-      <c r="C97" s="6">
-        <v>0</v>
-      </c>
-      <c r="D97" s="6" t="s">
+      <c r="C97" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E97" s="6"/>
@@ -3042,15 +3030,15 @@
       <c r="X97" s="6"/>
       <c r="Y97" s="6"/>
     </row>
-    <row r="98" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98">
       <c r="A98" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B98" s="6"/>
-      <c r="C98" s="6">
-        <v>0</v>
-      </c>
-      <c r="D98" s="6" t="s">
+      <c r="C98" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D98" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E98" s="6"/>
@@ -3075,15 +3063,15 @@
       <c r="X98" s="6"/>
       <c r="Y98" s="6"/>
     </row>
-    <row r="99" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99">
       <c r="A99" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B99" s="6"/>
-      <c r="C99" s="6">
-        <v>0</v>
-      </c>
-      <c r="D99" s="6" t="s">
+      <c r="C99" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D99" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E99" s="6"/>
@@ -3108,7 +3096,7 @@
       <c r="X99" s="6"/>
       <c r="Y99" s="6"/>
     </row>
-    <row r="100" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100">
       <c r="A100" s="2" t="s">
         <v>104</v>
       </c>
@@ -3116,23 +3104,23 @@
         <v>105</v>
       </c>
       <c r="C100" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101">
       <c r="A101" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C101" s="6">
-        <v>0</v>
-      </c>
-      <c r="D101" s="6" t="s">
+      <c r="C101" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>106</v>
       </c>
       <c r="E101" s="6"/>
@@ -3157,7 +3145,7 @@
       <c r="X101" s="6"/>
       <c r="Y101" s="6"/>
     </row>
-    <row r="102" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102">
       <c r="A102" s="2" t="s">
         <v>108</v>
       </c>
@@ -3165,23 +3153,23 @@
         <v>109</v>
       </c>
       <c r="C102" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103">
       <c r="A103" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="6">
-        <v>0</v>
-      </c>
-      <c r="D103" s="6" t="s">
+      <c r="C103" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>106</v>
       </c>
       <c r="E103" s="6"/>
@@ -3206,7 +3194,7 @@
       <c r="X103" s="6"/>
       <c r="Y103" s="6"/>
     </row>
-    <row r="104" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104">
       <c r="A104" s="2" t="s">
         <v>110</v>
       </c>
@@ -3214,13 +3202,13 @@
         <v>108</v>
       </c>
       <c r="C104" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105">
       <c r="A105" s="2" t="s">
         <v>110</v>
       </c>
@@ -3228,13 +3216,13 @@
         <v>109</v>
       </c>
       <c r="C105" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106">
       <c r="A106" s="2" t="s">
         <v>111</v>
       </c>
@@ -3242,13 +3230,13 @@
         <v>110</v>
       </c>
       <c r="C106" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107">
       <c r="A107" s="2" t="s">
         <v>109</v>
       </c>
@@ -3256,13 +3244,13 @@
         <v>111</v>
       </c>
       <c r="C107" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108">
       <c r="A108" s="2" t="s">
         <v>112</v>
       </c>
@@ -3270,13 +3258,13 @@
         <v>113</v>
       </c>
       <c r="C108" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109">
       <c r="A109" s="2" t="s">
         <v>113</v>
       </c>
@@ -3284,13 +3272,13 @@
         <v>109</v>
       </c>
       <c r="C109" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110">
       <c r="A110" s="3" t="s">
         <v>113</v>
       </c>
@@ -3298,13 +3286,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111">
       <c r="A111" s="2" t="s">
         <v>114</v>
       </c>
@@ -3312,13 +3300,13 @@
         <v>115</v>
       </c>
       <c r="C111" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112">
       <c r="A112" s="2" t="s">
         <v>116</v>
       </c>
@@ -3326,13 +3314,13 @@
         <v>112</v>
       </c>
       <c r="C112" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113">
       <c r="A113" s="2" t="s">
         <v>117</v>
       </c>
@@ -3340,13 +3328,13 @@
         <v>114</v>
       </c>
       <c r="C113" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114">
       <c r="A114" s="2" t="s">
         <v>118</v>
       </c>
@@ -3354,13 +3342,13 @@
         <v>117</v>
       </c>
       <c r="C114" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115">
       <c r="A115" s="2" t="s">
         <v>118</v>
       </c>
@@ -3368,23 +3356,23 @@
         <v>104</v>
       </c>
       <c r="C115" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116">
       <c r="A116" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C116" s="6">
-        <v>0</v>
-      </c>
-      <c r="D116" s="6" t="s">
+      <c r="C116" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D116" s="7" t="s">
         <v>106</v>
       </c>
       <c r="E116" s="6"/>
@@ -3409,7 +3397,7 @@
       <c r="X116" s="6"/>
       <c r="Y116" s="6"/>
     </row>
-    <row r="117" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117">
       <c r="A117" s="2" t="s">
         <v>115</v>
       </c>
@@ -3417,13 +3405,13 @@
         <v>120</v>
       </c>
       <c r="C117" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118">
       <c r="A118" s="2" t="s">
         <v>120</v>
       </c>
@@ -3431,13 +3419,13 @@
         <v>121</v>
       </c>
       <c r="C118" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119">
       <c r="A119" s="3" t="s">
         <v>121</v>
       </c>
@@ -3445,23 +3433,23 @@
         <v>8</v>
       </c>
       <c r="C119" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120">
       <c r="A120" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C120" s="6">
-        <v>0</v>
-      </c>
-      <c r="D120" s="6" t="s">
+      <c r="C120" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D120" s="7" t="s">
         <v>106</v>
       </c>
       <c r="E120" s="6"/>
@@ -3486,7 +3474,7 @@
       <c r="X120" s="6"/>
       <c r="Y120" s="6"/>
     </row>
-    <row r="121" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121">
       <c r="A121" s="2" t="s">
         <v>122</v>
       </c>
@@ -3494,13 +3482,13 @@
         <v>123</v>
       </c>
       <c r="C121" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122">
       <c r="A122" s="2" t="s">
         <v>122</v>
       </c>
@@ -3508,13 +3496,13 @@
         <v>125</v>
       </c>
       <c r="C122" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123">
       <c r="A123" s="2" t="s">
         <v>123</v>
       </c>
@@ -3522,13 +3510,13 @@
         <v>126</v>
       </c>
       <c r="C123" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124">
       <c r="A124" s="2" t="s">
         <v>126</v>
       </c>
@@ -3536,13 +3524,13 @@
         <v>127</v>
       </c>
       <c r="C124" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="125">
       <c r="A125" s="2" t="s">
         <v>128</v>
       </c>
@@ -3550,13 +3538,13 @@
         <v>127</v>
       </c>
       <c r="C125" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="126">
       <c r="A126" s="2" t="s">
         <v>128</v>
       </c>
@@ -3564,13 +3552,13 @@
         <v>69</v>
       </c>
       <c r="C126" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="127">
       <c r="A127" s="2" t="s">
         <v>129</v>
       </c>
@@ -3578,13 +3566,13 @@
         <v>128</v>
       </c>
       <c r="C127" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="128">
       <c r="A128" s="2" t="s">
         <v>130</v>
       </c>
@@ -3592,13 +3580,13 @@
         <v>129</v>
       </c>
       <c r="C128" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129">
       <c r="A129" s="2" t="s">
         <v>131</v>
       </c>
@@ -3606,13 +3594,13 @@
         <v>132</v>
       </c>
       <c r="C129" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="130">
       <c r="A130" s="3" t="s">
         <v>131</v>
       </c>
@@ -3620,13 +3608,13 @@
         <v>133</v>
       </c>
       <c r="C130" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="131">
       <c r="A131" s="2" t="s">
         <v>134</v>
       </c>
@@ -3634,13 +3622,13 @@
         <v>131</v>
       </c>
       <c r="C131" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="132">
       <c r="A132" s="2" t="s">
         <v>135</v>
       </c>
@@ -3648,13 +3636,13 @@
         <v>134</v>
       </c>
       <c r="C132" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133">
       <c r="A133" s="2" t="s">
         <v>136</v>
       </c>
@@ -3662,13 +3650,13 @@
         <v>135</v>
       </c>
       <c r="C133" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="134">
       <c r="A134" s="2" t="s">
         <v>137</v>
       </c>
@@ -3676,13 +3664,13 @@
         <v>125</v>
       </c>
       <c r="C134" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135">
       <c r="A135" s="2" t="s">
         <v>137</v>
       </c>
@@ -3690,13 +3678,13 @@
         <v>138</v>
       </c>
       <c r="C135" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="136">
       <c r="A136" s="2" t="s">
         <v>137</v>
       </c>
@@ -3704,13 +3692,13 @@
         <v>139</v>
       </c>
       <c r="C136" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="137">
       <c r="A137" s="2" t="s">
         <v>132</v>
       </c>
@@ -3718,13 +3706,13 @@
         <v>125</v>
       </c>
       <c r="C137" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="138">
       <c r="A138" s="2" t="s">
         <v>140</v>
       </c>
@@ -3732,13 +3720,13 @@
         <v>131</v>
       </c>
       <c r="C138" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="139">
       <c r="A139" s="2" t="s">
         <v>141</v>
       </c>
@@ -3746,13 +3734,13 @@
         <v>140</v>
       </c>
       <c r="C139" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="140">
       <c r="A140" s="2" t="s">
         <v>142</v>
       </c>
@@ -3760,13 +3748,13 @@
         <v>141</v>
       </c>
       <c r="C140" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="141">
       <c r="A141" s="2" t="s">
         <v>143</v>
       </c>
@@ -3774,13 +3762,13 @@
         <v>142</v>
       </c>
       <c r="C141" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="142">
       <c r="A142" s="2" t="s">
         <v>144</v>
       </c>
@@ -3788,13 +3776,13 @@
         <v>143</v>
       </c>
       <c r="C142" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="143">
       <c r="A143" s="2" t="s">
         <v>145</v>
       </c>
@@ -3802,13 +3790,13 @@
         <v>144</v>
       </c>
       <c r="C143" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="144">
       <c r="A144" s="2" t="s">
         <v>146</v>
       </c>
@@ -3816,13 +3804,13 @@
         <v>145</v>
       </c>
       <c r="C144" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="145" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="145">
       <c r="A145" s="2" t="s">
         <v>146</v>
       </c>
@@ -3830,13 +3818,13 @@
         <v>125</v>
       </c>
       <c r="C145" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="146" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="146">
       <c r="A146" s="2" t="s">
         <v>147</v>
       </c>
@@ -3844,13 +3832,13 @@
         <v>133</v>
       </c>
       <c r="C146" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="147">
       <c r="A147" s="3" t="s">
         <v>133</v>
       </c>
@@ -3858,23 +3846,23 @@
         <v>148</v>
       </c>
       <c r="C147" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="148">
       <c r="A148" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C148" s="6">
-        <v>0</v>
-      </c>
-      <c r="D148" s="6" t="s">
+      <c r="C148" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D148" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E148" s="6"/>
@@ -3899,17 +3887,17 @@
       <c r="X148" s="6"/>
       <c r="Y148" s="6"/>
     </row>
-    <row r="149" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="149">
       <c r="A149" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C149" s="6">
-        <v>0</v>
-      </c>
-      <c r="D149" s="6" t="s">
+      <c r="C149" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D149" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E149" s="6"/>
@@ -3934,7 +3922,7 @@
       <c r="X149" s="6"/>
       <c r="Y149" s="6"/>
     </row>
-    <row r="150" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="150">
       <c r="A150" s="2" t="s">
         <v>138</v>
       </c>
@@ -3942,13 +3930,13 @@
         <v>69</v>
       </c>
       <c r="C150" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="151" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="151">
       <c r="A151" s="2" t="s">
         <v>69</v>
       </c>
@@ -3956,13 +3944,13 @@
         <v>151</v>
       </c>
       <c r="C151" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="152" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="152">
       <c r="A152" s="3" t="s">
         <v>69</v>
       </c>
@@ -3970,13 +3958,13 @@
         <v>11</v>
       </c>
       <c r="C152" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="153">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
@@ -3984,13 +3972,13 @@
         <v>153</v>
       </c>
       <c r="C153" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="154" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="154">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
@@ -3998,13 +3986,13 @@
         <v>155</v>
       </c>
       <c r="C154" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="155">
       <c r="A155" s="2" t="s">
         <v>155</v>
       </c>
@@ -4012,13 +4000,13 @@
         <v>64</v>
       </c>
       <c r="C155" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="156">
       <c r="A156" s="2" t="s">
         <v>156</v>
       </c>
@@ -4026,13 +4014,13 @@
         <v>157</v>
       </c>
       <c r="C156" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="157">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
@@ -4040,13 +4028,13 @@
         <v>158</v>
       </c>
       <c r="C157" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="158" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="158">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
@@ -4054,13 +4042,13 @@
         <v>159</v>
       </c>
       <c r="C158" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="159" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="159">
       <c r="A159" s="2" t="s">
         <v>159</v>
       </c>
@@ -4068,13 +4056,13 @@
         <v>160</v>
       </c>
       <c r="C159" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="160" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="160">
       <c r="A160" s="2" t="s">
         <v>160</v>
       </c>
@@ -4082,13 +4070,13 @@
         <v>161</v>
       </c>
       <c r="C160" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="161">
       <c r="A161" s="2" t="s">
         <v>158</v>
       </c>
@@ -4096,13 +4084,13 @@
         <v>162</v>
       </c>
       <c r="C161" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="162">
       <c r="A162" s="2" t="s">
         <v>158</v>
       </c>
@@ -4110,13 +4098,13 @@
         <v>163</v>
       </c>
       <c r="C162" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="163">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
@@ -4124,13 +4112,13 @@
         <v>164</v>
       </c>
       <c r="C163" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="164">
       <c r="A164" s="2" t="s">
         <v>164</v>
       </c>
@@ -4138,13 +4126,13 @@
         <v>165</v>
       </c>
       <c r="C164" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="165">
       <c r="A165" s="2" t="s">
         <v>165</v>
       </c>
@@ -4152,13 +4140,13 @@
         <v>166</v>
       </c>
       <c r="C165" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="166">
       <c r="A166" s="2" t="s">
         <v>166</v>
       </c>
@@ -4166,13 +4154,13 @@
         <v>167</v>
       </c>
       <c r="C166" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="167">
       <c r="A167" s="2" t="s">
         <v>167</v>
       </c>
@@ -4180,13 +4168,13 @@
         <v>168</v>
       </c>
       <c r="C167" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="168">
       <c r="A168" s="2" t="s">
         <v>168</v>
       </c>
@@ -4194,13 +4182,13 @@
         <v>161</v>
       </c>
       <c r="C168" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="169">
       <c r="A169" s="2" t="s">
         <v>161</v>
       </c>
@@ -4208,13 +4196,13 @@
         <v>169</v>
       </c>
       <c r="C169" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="170">
       <c r="A170" s="2" t="s">
         <v>163</v>
       </c>
@@ -4222,13 +4210,13 @@
         <v>170</v>
       </c>
       <c r="C170" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="171">
       <c r="A171" s="2" t="s">
         <v>163</v>
       </c>
@@ -4236,13 +4224,13 @@
         <v>171</v>
       </c>
       <c r="C171" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="172">
       <c r="A172" s="2" t="s">
         <v>170</v>
       </c>
@@ -4250,13 +4238,13 @@
         <v>172</v>
       </c>
       <c r="C172" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="173">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
@@ -4264,13 +4252,13 @@
         <v>173</v>
       </c>
       <c r="C173" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="174">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
@@ -4278,13 +4266,13 @@
         <v>174</v>
       </c>
       <c r="C174" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="175">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
@@ -4292,13 +4280,13 @@
         <v>175</v>
       </c>
       <c r="C175" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="176">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
@@ -4306,13 +4294,13 @@
         <v>169</v>
       </c>
       <c r="C176" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="177" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="177">
       <c r="A177" s="2" t="s">
         <v>169</v>
       </c>
@@ -4320,13 +4308,13 @@
         <v>176</v>
       </c>
       <c r="C177" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="178" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="178">
       <c r="A178" s="2" t="s">
         <v>171</v>
       </c>
@@ -4334,13 +4322,13 @@
         <v>177</v>
       </c>
       <c r="C178" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="179" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="179">
       <c r="A179" s="2" t="s">
         <v>177</v>
       </c>
@@ -4348,13 +4336,13 @@
         <v>178</v>
       </c>
       <c r="C179" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="180" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="180">
       <c r="A180" s="2" t="s">
         <v>178</v>
       </c>
@@ -4362,13 +4350,13 @@
         <v>179</v>
       </c>
       <c r="C180" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="181" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="181">
       <c r="A181" s="2" t="s">
         <v>179</v>
       </c>
@@ -4376,13 +4364,13 @@
         <v>180</v>
       </c>
       <c r="C181" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="182" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="182">
       <c r="A182" s="2" t="s">
         <v>180</v>
       </c>
@@ -4390,13 +4378,13 @@
         <v>181</v>
       </c>
       <c r="C182" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="183" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="183">
       <c r="A183" s="2" t="s">
         <v>181</v>
       </c>
@@ -4404,13 +4392,13 @@
         <v>182</v>
       </c>
       <c r="C183" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="184" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="184">
       <c r="A184" s="2" t="s">
         <v>182</v>
       </c>
@@ -4418,13 +4406,13 @@
         <v>183</v>
       </c>
       <c r="C184" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="185" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="185">
       <c r="A185" s="2" t="s">
         <v>183</v>
       </c>
@@ -4432,13 +4420,13 @@
         <v>184</v>
       </c>
       <c r="C185" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="186" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="186">
       <c r="A186" s="2" t="s">
         <v>184</v>
       </c>
@@ -4446,13 +4434,13 @@
         <v>185</v>
       </c>
       <c r="C186" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="187" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="187">
       <c r="A187" s="2" t="s">
         <v>185</v>
       </c>
@@ -4460,23 +4448,23 @@
         <v>176</v>
       </c>
       <c r="C187" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="188" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="188">
       <c r="A188" s="5" t="s">
         <v>176</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C188" s="6">
-        <v>0</v>
-      </c>
-      <c r="D188" s="6" t="s">
+      <c r="C188" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D188" s="7" t="s">
         <v>154</v>
       </c>
       <c r="E188" s="6"/>
@@ -4501,7 +4489,7 @@
       <c r="X188" s="6"/>
       <c r="Y188" s="6"/>
     </row>
-    <row r="189" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="189">
       <c r="A189" s="2" t="s">
         <v>64</v>
       </c>
@@ -4509,13 +4497,13 @@
         <v>160</v>
       </c>
       <c r="C189" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="190" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="190">
       <c r="A190" s="3" t="s">
         <v>64</v>
       </c>
@@ -4523,13 +4511,13 @@
         <v>24</v>
       </c>
       <c r="C190" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="191">
       <c r="A191" s="2" t="s">
         <v>187</v>
       </c>
@@ -4537,13 +4525,13 @@
         <v>156</v>
       </c>
       <c r="C191" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="192" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="192">
       <c r="A192" s="2" t="s">
         <v>187</v>
       </c>
@@ -4551,13 +4539,13 @@
         <v>152</v>
       </c>
       <c r="C192" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="193">
       <c r="A193" s="3" t="s">
         <v>187</v>
       </c>
@@ -4565,13 +4553,13 @@
         <v>188</v>
       </c>
       <c r="C193" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="194">
       <c r="A194" s="2" t="s">
         <v>189</v>
       </c>
@@ -4579,13 +4567,13 @@
         <v>151</v>
       </c>
       <c r="C194" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="195">
       <c r="A195" s="2" t="s">
         <v>190</v>
       </c>
@@ -4593,13 +4581,13 @@
         <v>189</v>
       </c>
       <c r="C195" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="196">
       <c r="A196" s="2" t="s">
         <v>191</v>
       </c>
@@ -4607,13 +4595,13 @@
         <v>190</v>
       </c>
       <c r="C196" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="197">
       <c r="A197" s="2" t="s">
         <v>192</v>
       </c>
@@ -4621,57 +4609,57 @@
         <v>191</v>
       </c>
       <c r="C197" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="198">
       <c r="A198" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C198" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="199">
       <c r="A199" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C199" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="200">
       <c r="A200" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C200" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="201">
       <c r="A201" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C201" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="202">
       <c r="A202" s="2" t="s">
         <v>139</v>
       </c>
@@ -4679,13 +4667,13 @@
         <v>197</v>
       </c>
       <c r="C202" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="203">
       <c r="A203" s="2" t="s">
         <v>197</v>
       </c>
@@ -4693,13 +4681,13 @@
         <v>198</v>
       </c>
       <c r="C203" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="204">
       <c r="A204" s="2" t="s">
         <v>198</v>
       </c>
@@ -4707,13 +4695,13 @@
         <v>192</v>
       </c>
       <c r="C204" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="205">
       <c r="A205" s="2" t="s">
         <v>199</v>
       </c>
@@ -4721,13 +4709,13 @@
         <v>200</v>
       </c>
       <c r="C205" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="206">
       <c r="A206" s="2" t="s">
         <v>200</v>
       </c>
@@ -4735,13 +4723,13 @@
         <v>202</v>
       </c>
       <c r="C206" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="207">
       <c r="A207" s="2" t="s">
         <v>202</v>
       </c>
@@ -4749,13 +4737,13 @@
         <v>203</v>
       </c>
       <c r="C207" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="208">
       <c r="A208" s="2" t="s">
         <v>203</v>
       </c>
@@ -4763,13 +4751,13 @@
         <v>188</v>
       </c>
       <c r="C208" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="209">
       <c r="A209" s="2" t="s">
         <v>202</v>
       </c>
@@ -4777,13 +4765,13 @@
         <v>199</v>
       </c>
       <c r="C209" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="210">
       <c r="A210" s="2" t="s">
         <v>200</v>
       </c>
@@ -4791,13 +4779,13 @@
         <v>203</v>
       </c>
       <c r="C210" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="211">
       <c r="A211" s="2" t="s">
         <v>188</v>
       </c>
@@ -4805,13 +4793,13 @@
         <v>199</v>
       </c>
       <c r="C211" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="212">
       <c r="A212" s="2" t="s">
         <v>204</v>
       </c>
@@ -4819,13 +4807,13 @@
         <v>205</v>
       </c>
       <c r="C212" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="213">
       <c r="A213" s="2" t="s">
         <v>205</v>
       </c>
@@ -4833,13 +4821,13 @@
         <v>206</v>
       </c>
       <c r="C213" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="214">
       <c r="A214" s="2" t="s">
         <v>206</v>
       </c>
@@ -4847,13 +4835,13 @@
         <v>207</v>
       </c>
       <c r="C214" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="215">
       <c r="A215" s="2" t="s">
         <v>207</v>
       </c>
@@ -4861,13 +4849,13 @@
         <v>208</v>
       </c>
       <c r="C215" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="216">
       <c r="A216" s="2" t="s">
         <v>206</v>
       </c>
@@ -4875,13 +4863,13 @@
         <v>204</v>
       </c>
       <c r="C216" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="217">
       <c r="A217" s="2" t="s">
         <v>207</v>
       </c>
@@ -4889,13 +4877,13 @@
         <v>205</v>
       </c>
       <c r="C217" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="218">
       <c r="A218" s="2" t="s">
         <v>208</v>
       </c>
@@ -4903,13 +4891,13 @@
         <v>204</v>
       </c>
       <c r="C218" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="219">
       <c r="A219" s="2" t="s">
         <v>208</v>
       </c>
@@ -4917,13 +4905,13 @@
         <v>188</v>
       </c>
       <c r="C219" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="220">
       <c r="A220" s="3" t="s">
         <v>24</v>
       </c>
@@ -4931,13 +4919,13 @@
         <v>208</v>
       </c>
       <c r="C220" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="221">
       <c r="A221" s="3" t="s">
         <v>24</v>
       </c>
@@ -4945,13 +4933,13 @@
         <v>188</v>
       </c>
       <c r="C221" s="1">
-        <v>110</v>
+        <v>110.0</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="222">
       <c r="A222" s="2" t="s">
         <v>209</v>
       </c>
@@ -4959,13 +4947,13 @@
         <v>114</v>
       </c>
       <c r="C222" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="223">
       <c r="A223" s="2" t="s">
         <v>210</v>
       </c>
@@ -4973,13 +4961,13 @@
         <v>209</v>
       </c>
       <c r="C223" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="224">
       <c r="A224" s="2" t="s">
         <v>211</v>
       </c>
@@ -4987,13 +4975,13 @@
         <v>210</v>
       </c>
       <c r="C224" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="225">
       <c r="A225" s="2" t="s">
         <v>212</v>
       </c>
@@ -5001,13 +4989,13 @@
         <v>211</v>
       </c>
       <c r="C225" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="226">
       <c r="A226" s="2" t="s">
         <v>213</v>
       </c>
@@ -5015,13 +5003,13 @@
         <v>212</v>
       </c>
       <c r="C226" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="227">
       <c r="A227" s="3" t="s">
         <v>213</v>
       </c>
@@ -5029,123 +5017,123 @@
         <v>64</v>
       </c>
       <c r="C227" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="228">
       <c r="A228" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C228" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="229">
       <c r="A229" s="2" t="s">
         <v>215</v>
       </c>
       <c r="C229" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="230">
       <c r="A230" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C230" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="231">
       <c r="A231" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C231" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="232">
       <c r="A232" s="2" t="s">
         <v>218</v>
       </c>
       <c r="C232" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="233">
       <c r="A233" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C233" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="234">
       <c r="A234" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C234" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="235">
       <c r="A235" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C235" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="236">
       <c r="A236" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C236" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="237">
       <c r="A237" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C237" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="238">
       <c r="A238" s="3" t="s">
         <v>224</v>
       </c>
@@ -5153,13 +5141,13 @@
         <v>50</v>
       </c>
       <c r="C238" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="239">
       <c r="A239" s="2" t="s">
         <v>225</v>
       </c>
@@ -5167,13 +5155,13 @@
         <v>224</v>
       </c>
       <c r="C239" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="240">
       <c r="A240" s="2" t="s">
         <v>226</v>
       </c>
@@ -5181,13 +5169,13 @@
         <v>225</v>
       </c>
       <c r="C240" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="241">
       <c r="A241" s="2" t="s">
         <v>56</v>
       </c>
@@ -5195,13 +5183,13 @@
         <v>227</v>
       </c>
       <c r="C241" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="242">
       <c r="A242" s="2" t="s">
         <v>227</v>
       </c>
@@ -5209,13 +5197,13 @@
         <v>228</v>
       </c>
       <c r="C242" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="243">
       <c r="A243" s="2" t="s">
         <v>228</v>
       </c>
@@ -5223,13 +5211,13 @@
         <v>224</v>
       </c>
       <c r="C243" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="244">
       <c r="A244" s="2" t="s">
         <v>229</v>
       </c>
@@ -5237,13 +5225,13 @@
         <v>228</v>
       </c>
       <c r="C244" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="245">
       <c r="A245" s="2" t="s">
         <v>230</v>
       </c>
@@ -5251,13 +5239,13 @@
         <v>231</v>
       </c>
       <c r="C245" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="246">
       <c r="A246" s="2" t="s">
         <v>231</v>
       </c>
@@ -5265,13 +5253,13 @@
         <v>232</v>
       </c>
       <c r="C246" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="247">
       <c r="A247" s="2" t="s">
         <v>232</v>
       </c>
@@ -5279,13 +5267,13 @@
         <v>228</v>
       </c>
       <c r="C247" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="248">
       <c r="A248" s="2" t="s">
         <v>233</v>
       </c>
@@ -5293,13 +5281,13 @@
         <v>232</v>
       </c>
       <c r="C248" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="249">
       <c r="A249" s="2" t="s">
         <v>234</v>
       </c>
@@ -5307,13 +5295,13 @@
         <v>235</v>
       </c>
       <c r="C249" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="250">
       <c r="A250" s="2" t="s">
         <v>235</v>
       </c>
@@ -5321,13 +5309,13 @@
         <v>236</v>
       </c>
       <c r="C250" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="251">
       <c r="A251" s="2" t="s">
         <v>236</v>
       </c>
@@ -5335,13 +5323,13 @@
         <v>232</v>
       </c>
       <c r="C251" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="252">
       <c r="A252" s="2" t="s">
         <v>237</v>
       </c>
@@ -5349,13 +5337,13 @@
         <v>236</v>
       </c>
       <c r="C252" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="253">
       <c r="A253" s="2" t="s">
         <v>238</v>
       </c>
@@ -5363,13 +5351,13 @@
         <v>237</v>
       </c>
       <c r="C253" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="254">
       <c r="A254" s="2" t="s">
         <v>238</v>
       </c>
@@ -5377,13 +5365,13 @@
         <v>233</v>
       </c>
       <c r="C254" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="255">
       <c r="A255" s="3" t="s">
         <v>239</v>
       </c>
@@ -5391,13 +5379,13 @@
         <v>224</v>
       </c>
       <c r="C255" s="1">
-        <v>150</v>
+        <v>150.0</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="256">
       <c r="A256" s="3" t="s">
         <v>239</v>
       </c>
@@ -5405,13 +5393,13 @@
         <v>133</v>
       </c>
       <c r="C256" s="1">
-        <v>150</v>
+        <v>150.0</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="257">
       <c r="A257" s="3" t="s">
         <v>240</v>
       </c>
@@ -5419,13 +5407,13 @@
         <v>23</v>
       </c>
       <c r="C257" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="258">
       <c r="A258" s="2" t="s">
         <v>240</v>
       </c>
@@ -5433,13 +5421,13 @@
         <v>241</v>
       </c>
       <c r="C258" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="259">
       <c r="A259" s="2" t="s">
         <v>241</v>
       </c>
@@ -5447,13 +5435,13 @@
         <v>243</v>
       </c>
       <c r="C259" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="260">
       <c r="A260" s="2" t="s">
         <v>243</v>
       </c>
@@ -5461,13 +5449,13 @@
         <v>244</v>
       </c>
       <c r="C260" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="261">
       <c r="A261" s="2" t="s">
         <v>244</v>
       </c>
@@ -5475,13 +5463,13 @@
         <v>49</v>
       </c>
       <c r="C261" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="262">
       <c r="A262" s="3" t="s">
         <v>49</v>
       </c>
@@ -5489,13 +5477,13 @@
         <v>33</v>
       </c>
       <c r="C262" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="263">
       <c r="A263" s="2" t="s">
         <v>245</v>
       </c>
@@ -5503,13 +5491,13 @@
         <v>240</v>
       </c>
       <c r="C263" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="264">
       <c r="A264" s="2" t="s">
         <v>245</v>
       </c>
@@ -5517,13 +5505,13 @@
         <v>246</v>
       </c>
       <c r="C264" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="265">
       <c r="A265" s="2" t="s">
         <v>246</v>
       </c>
@@ -5531,13 +5519,13 @@
         <v>247</v>
       </c>
       <c r="C265" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="266">
       <c r="A266" s="2" t="s">
         <v>247</v>
       </c>
@@ -5545,13 +5533,13 @@
         <v>248</v>
       </c>
       <c r="C266" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="267">
       <c r="A267" s="2" t="s">
         <v>248</v>
       </c>
@@ -5559,13 +5547,13 @@
         <v>249</v>
       </c>
       <c r="C267" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="268">
       <c r="A268" s="2" t="s">
         <v>249</v>
       </c>
@@ -5573,13 +5561,13 @@
         <v>250</v>
       </c>
       <c r="C268" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="269">
       <c r="A269" s="2" t="s">
         <v>250</v>
       </c>
@@ -5587,13 +5575,13 @@
         <v>251</v>
       </c>
       <c r="C269" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="270">
       <c r="A270" s="2" t="s">
         <v>251</v>
       </c>
@@ -5601,13 +5589,13 @@
         <v>49</v>
       </c>
       <c r="C270" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="271">
       <c r="A271" s="2" t="s">
         <v>252</v>
       </c>
@@ -5615,55 +5603,55 @@
         <v>253</v>
       </c>
       <c r="C271" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="272">
       <c r="A272" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B272" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C272" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C272" s="1">
-        <v>1</v>
-      </c>
-      <c r="D272" s="1" t="s">
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A273" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>256</v>
       </c>
       <c r="C273" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D273" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A274" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C274" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="275">
       <c r="A275" s="2" t="s">
         <v>257</v>
       </c>
@@ -5671,13 +5659,13 @@
         <v>11</v>
       </c>
       <c r="C275" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="276">
       <c r="A276" s="2" t="s">
         <v>11</v>
       </c>
@@ -5685,13 +5673,13 @@
         <v>258</v>
       </c>
       <c r="C276" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="277">
       <c r="A277" s="2" t="s">
         <v>258</v>
       </c>
@@ -5699,13 +5687,13 @@
         <v>259</v>
       </c>
       <c r="C277" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="278">
       <c r="A278" s="2" t="s">
         <v>260</v>
       </c>
@@ -5713,13 +5701,13 @@
         <v>259</v>
       </c>
       <c r="C278" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="279">
       <c r="A279" s="2" t="s">
         <v>259</v>
       </c>
@@ -5727,13 +5715,13 @@
         <v>261</v>
       </c>
       <c r="C279" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="280">
       <c r="A280" s="2" t="s">
         <v>261</v>
       </c>
@@ -5741,13 +5729,13 @@
         <v>262</v>
       </c>
       <c r="C280" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="281">
       <c r="A281" s="2" t="s">
         <v>263</v>
       </c>
@@ -5755,13 +5743,13 @@
         <v>262</v>
       </c>
       <c r="C281" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="282">
       <c r="A282" s="2" t="s">
         <v>262</v>
       </c>
@@ -5769,13 +5757,13 @@
         <v>264</v>
       </c>
       <c r="C282" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="283">
       <c r="A283" s="2" t="s">
         <v>264</v>
       </c>
@@ -5783,13 +5771,13 @@
         <v>265</v>
       </c>
       <c r="C283" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="284">
       <c r="A284" s="2" t="s">
         <v>266</v>
       </c>
@@ -5797,13 +5785,13 @@
         <v>265</v>
       </c>
       <c r="C284" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="285">
       <c r="A285" s="2" t="s">
         <v>265</v>
       </c>
@@ -5811,13 +5799,13 @@
         <v>267</v>
       </c>
       <c r="C285" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="286">
       <c r="A286" s="2" t="s">
         <v>267</v>
       </c>
@@ -5825,13 +5813,13 @@
         <v>268</v>
       </c>
       <c r="C286" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="287">
       <c r="A287" s="2" t="s">
         <v>267</v>
       </c>
@@ -5839,13 +5827,13 @@
         <v>269</v>
       </c>
       <c r="C287" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="288">
       <c r="A288" s="2" t="s">
         <v>270</v>
       </c>
@@ -5853,13 +5841,13 @@
         <v>269</v>
       </c>
       <c r="C288" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="289">
       <c r="A289" s="2" t="s">
         <v>269</v>
       </c>
@@ -5867,13 +5855,13 @@
         <v>271</v>
       </c>
       <c r="C289" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="290">
       <c r="A290" s="2" t="s">
         <v>271</v>
       </c>
@@ -5881,13 +5869,13 @@
         <v>272</v>
       </c>
       <c r="C290" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="291">
       <c r="A291" s="2" t="s">
         <v>271</v>
       </c>
@@ -5895,13 +5883,13 @@
         <v>273</v>
       </c>
       <c r="C291" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="292">
       <c r="A292" s="2" t="s">
         <v>274</v>
       </c>
@@ -5909,13 +5897,13 @@
         <v>273</v>
       </c>
       <c r="C292" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="293">
       <c r="A293" s="2" t="s">
         <v>273</v>
       </c>
@@ -5923,13 +5911,13 @@
         <v>275</v>
       </c>
       <c r="C293" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="294">
       <c r="A294" s="2" t="s">
         <v>275</v>
       </c>
@@ -5937,13 +5925,13 @@
         <v>276</v>
       </c>
       <c r="C294" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="295">
       <c r="A295" s="2" t="s">
         <v>277</v>
       </c>
@@ -5951,13 +5939,13 @@
         <v>252</v>
       </c>
       <c r="C295" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Datos/datos grafo salas.xlsx
+++ b/Datos/datos grafo salas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="278">
   <si>
     <t>nodo1</t>
   </si>
@@ -70,16 +70,16 @@
     <t>yellow</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>A3</t>
+    <t>A5</t>
   </si>
   <si>
     <t>A6</t>
-  </si>
-  <si>
-    <t>A5</t>
   </si>
   <si>
     <t>A7</t>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C16" s="1">
         <v>1.0</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
@@ -1380,10 +1380,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C18" s="1">
         <v>1.0</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -2137,7 +2137,6 @@
       <c r="V70" s="6"/>
       <c r="W70" s="6"/>
       <c r="X70" s="6"/>
-      <c r="Y70" s="6"/>
     </row>
     <row r="71">
       <c r="A71" s="5" t="s">
@@ -2170,7 +2169,6 @@
       <c r="V71" s="6"/>
       <c r="W71" s="6"/>
       <c r="X71" s="6"/>
-      <c r="Y71" s="6"/>
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
@@ -2203,7 +2201,6 @@
       <c r="V72" s="6"/>
       <c r="W72" s="6"/>
       <c r="X72" s="6"/>
-      <c r="Y72" s="6"/>
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
@@ -2236,7 +2233,6 @@
       <c r="V73" s="6"/>
       <c r="W73" s="6"/>
       <c r="X73" s="6"/>
-      <c r="Y73" s="6"/>
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
@@ -2269,7 +2265,6 @@
       <c r="V74" s="6"/>
       <c r="W74" s="6"/>
       <c r="X74" s="6"/>
-      <c r="Y74" s="6"/>
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
@@ -2302,7 +2297,6 @@
       <c r="V75" s="6"/>
       <c r="W75" s="6"/>
       <c r="X75" s="6"/>
-      <c r="Y75" s="6"/>
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
@@ -2335,7 +2329,6 @@
       <c r="V76" s="6"/>
       <c r="W76" s="6"/>
       <c r="X76" s="6"/>
-      <c r="Y76" s="6"/>
     </row>
     <row r="77">
       <c r="A77" s="5" t="s">
@@ -2368,7 +2361,6 @@
       <c r="V77" s="6"/>
       <c r="W77" s="6"/>
       <c r="X77" s="6"/>
-      <c r="Y77" s="6"/>
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
@@ -2401,7 +2393,6 @@
       <c r="V78" s="6"/>
       <c r="W78" s="6"/>
       <c r="X78" s="6"/>
-      <c r="Y78" s="6"/>
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
@@ -2434,7 +2425,6 @@
       <c r="V79" s="6"/>
       <c r="W79" s="6"/>
       <c r="X79" s="6"/>
-      <c r="Y79" s="6"/>
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
@@ -2467,7 +2457,6 @@
       <c r="V80" s="6"/>
       <c r="W80" s="6"/>
       <c r="X80" s="6"/>
-      <c r="Y80" s="6"/>
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
@@ -2500,7 +2489,6 @@
       <c r="V81" s="6"/>
       <c r="W81" s="6"/>
       <c r="X81" s="6"/>
-      <c r="Y81" s="6"/>
     </row>
     <row r="82">
       <c r="A82" s="5" t="s">
@@ -2533,7 +2521,6 @@
       <c r="V82" s="6"/>
       <c r="W82" s="6"/>
       <c r="X82" s="6"/>
-      <c r="Y82" s="6"/>
     </row>
     <row r="83">
       <c r="A83" s="5" t="s">
@@ -2566,7 +2553,6 @@
       <c r="V83" s="6"/>
       <c r="W83" s="6"/>
       <c r="X83" s="6"/>
-      <c r="Y83" s="6"/>
     </row>
     <row r="84">
       <c r="A84" s="5" t="s">
@@ -2599,7 +2585,6 @@
       <c r="V84" s="6"/>
       <c r="W84" s="6"/>
       <c r="X84" s="6"/>
-      <c r="Y84" s="6"/>
     </row>
     <row r="85">
       <c r="A85" s="5" t="s">
@@ -2632,7 +2617,6 @@
       <c r="V85" s="6"/>
       <c r="W85" s="6"/>
       <c r="X85" s="6"/>
-      <c r="Y85" s="6"/>
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
@@ -2665,7 +2649,6 @@
       <c r="V86" s="6"/>
       <c r="W86" s="6"/>
       <c r="X86" s="6"/>
-      <c r="Y86" s="6"/>
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
@@ -2698,7 +2681,6 @@
       <c r="V87" s="6"/>
       <c r="W87" s="6"/>
       <c r="X87" s="6"/>
-      <c r="Y87" s="6"/>
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
@@ -2731,7 +2713,6 @@
       <c r="V88" s="6"/>
       <c r="W88" s="6"/>
       <c r="X88" s="6"/>
-      <c r="Y88" s="6"/>
     </row>
     <row r="89">
       <c r="A89" s="5" t="s">
@@ -2764,7 +2745,6 @@
       <c r="V89" s="6"/>
       <c r="W89" s="6"/>
       <c r="X89" s="6"/>
-      <c r="Y89" s="6"/>
     </row>
     <row r="90">
       <c r="A90" s="5" t="s">
@@ -2797,7 +2777,6 @@
       <c r="V90" s="6"/>
       <c r="W90" s="6"/>
       <c r="X90" s="6"/>
-      <c r="Y90" s="6"/>
     </row>
     <row r="91">
       <c r="A91" s="5" t="s">
@@ -2830,7 +2809,6 @@
       <c r="V91" s="6"/>
       <c r="W91" s="6"/>
       <c r="X91" s="6"/>
-      <c r="Y91" s="6"/>
     </row>
     <row r="92">
       <c r="A92" s="5" t="s">
@@ -2863,7 +2841,6 @@
       <c r="V92" s="6"/>
       <c r="W92" s="6"/>
       <c r="X92" s="6"/>
-      <c r="Y92" s="6"/>
     </row>
     <row r="93">
       <c r="A93" s="5" t="s">
@@ -2896,7 +2873,6 @@
       <c r="V93" s="6"/>
       <c r="W93" s="6"/>
       <c r="X93" s="6"/>
-      <c r="Y93" s="6"/>
     </row>
     <row r="94">
       <c r="A94" s="5" t="s">
@@ -2929,7 +2905,6 @@
       <c r="V94" s="6"/>
       <c r="W94" s="6"/>
       <c r="X94" s="6"/>
-      <c r="Y94" s="6"/>
     </row>
     <row r="95">
       <c r="A95" s="5" t="s">
@@ -2962,7 +2937,6 @@
       <c r="V95" s="6"/>
       <c r="W95" s="6"/>
       <c r="X95" s="6"/>
-      <c r="Y95" s="6"/>
     </row>
     <row r="96">
       <c r="A96" s="5" t="s">
@@ -2995,7 +2969,6 @@
       <c r="V96" s="6"/>
       <c r="W96" s="6"/>
       <c r="X96" s="6"/>
-      <c r="Y96" s="6"/>
     </row>
     <row r="97">
       <c r="A97" s="5" t="s">
@@ -3028,7 +3001,6 @@
       <c r="V97" s="6"/>
       <c r="W97" s="6"/>
       <c r="X97" s="6"/>
-      <c r="Y97" s="6"/>
     </row>
     <row r="98">
       <c r="A98" s="5" t="s">
@@ -3061,7 +3033,6 @@
       <c r="V98" s="6"/>
       <c r="W98" s="6"/>
       <c r="X98" s="6"/>
-      <c r="Y98" s="6"/>
     </row>
     <row r="99">
       <c r="A99" s="5" t="s">
@@ -3094,7 +3065,6 @@
       <c r="V99" s="6"/>
       <c r="W99" s="6"/>
       <c r="X99" s="6"/>
-      <c r="Y99" s="6"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
@@ -3143,7 +3113,6 @@
       <c r="V101" s="6"/>
       <c r="W101" s="6"/>
       <c r="X101" s="6"/>
-      <c r="Y101" s="6"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
@@ -3192,7 +3161,6 @@
       <c r="V103" s="6"/>
       <c r="W103" s="6"/>
       <c r="X103" s="6"/>
-      <c r="Y103" s="6"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
@@ -3395,7 +3363,6 @@
       <c r="V116" s="6"/>
       <c r="W116" s="6"/>
       <c r="X116" s="6"/>
-      <c r="Y116" s="6"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
@@ -3472,7 +3439,6 @@
       <c r="V120" s="6"/>
       <c r="W120" s="6"/>
       <c r="X120" s="6"/>
-      <c r="Y120" s="6"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
@@ -3885,7 +3851,6 @@
       <c r="V148" s="6"/>
       <c r="W148" s="6"/>
       <c r="X148" s="6"/>
-      <c r="Y148" s="6"/>
     </row>
     <row r="149">
       <c r="A149" s="5" t="s">
@@ -3920,7 +3885,6 @@
       <c r="V149" s="6"/>
       <c r="W149" s="6"/>
       <c r="X149" s="6"/>
-      <c r="Y149" s="6"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
@@ -4487,7 +4451,6 @@
       <c r="V188" s="6"/>
       <c r="W188" s="6"/>
       <c r="X188" s="6"/>
-      <c r="Y188" s="6"/>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
@@ -5387,52 +5350,50 @@
     </row>
     <row r="256">
       <c r="A256" s="3" t="s">
-        <v>239</v>
+        <v>133</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="C256" s="1">
-        <v>150.0</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>100.0</v>
+      </c>
+      <c r="D256" s="1"/>
     </row>
     <row r="257">
       <c r="A257" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C257" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B258" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C257" s="1">
+      <c r="C258" s="1">
         <v>100.0</v>
       </c>
-      <c r="D257" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C258" s="1">
-        <v>1.0</v>
-      </c>
       <c r="D258" s="1" t="s">
-        <v>242</v>
+        <v>12</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="C259" s="1">
         <v>1.0</v>
@@ -5443,10 +5404,10 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="C260" s="1">
         <v>1.0</v>
@@ -5457,10 +5418,10 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="C261" s="1">
         <v>1.0</v>
@@ -5470,31 +5431,31 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="3" t="s">
+      <c r="A262" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="C262" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B263" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C262" s="1">
+      <c r="C263" s="1">
         <v>100.0</v>
       </c>
-      <c r="D262" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C263" s="1">
-        <v>5.0</v>
-      </c>
       <c r="D263" s="1" t="s">
-        <v>242</v>
+        <v>12</v>
       </c>
     </row>
     <row r="264">
@@ -5502,10 +5463,10 @@
         <v>245</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C264" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>242</v>
@@ -5513,10 +5474,10 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="C265" s="1">
         <v>1.0</v>
@@ -5527,10 +5488,10 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="C266" s="1">
         <v>1.0</v>
@@ -5541,10 +5502,10 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="C267" s="1">
         <v>1.0</v>
@@ -5555,10 +5516,10 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="C268" s="1">
         <v>1.0</v>
@@ -5569,10 +5530,10 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="C269" s="1">
         <v>1.0</v>
@@ -5583,13 +5544,13 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B270" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C270" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>242</v>
@@ -5597,24 +5558,24 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>253</v>
+        <v>49</v>
       </c>
       <c r="C271" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="C272" s="1">
         <v>1.0</v>
@@ -5625,10 +5586,10 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="C273" s="1">
         <v>1.0</v>
@@ -5642,10 +5603,10 @@
         <v>255</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="C274" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>254</v>
@@ -5653,13 +5614,13 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C275" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>254</v>
@@ -5667,10 +5628,10 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="C276" s="1">
         <v>1.0</v>
@@ -5681,13 +5642,13 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B277" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="C277" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>254</v>
@@ -5695,13 +5656,13 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>259</v>
       </c>
       <c r="C278" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>254</v>
@@ -5709,10 +5670,10 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="C279" s="1">
         <v>1.0</v>
@@ -5723,13 +5684,13 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B280" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B280" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="C280" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>254</v>
@@ -5737,13 +5698,13 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>262</v>
       </c>
       <c r="C281" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>254</v>
@@ -5751,10 +5712,10 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="C282" s="1">
         <v>1.0</v>
@@ -5765,13 +5726,13 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B283" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="C283" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>254</v>
@@ -5779,13 +5740,13 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>265</v>
       </c>
       <c r="C284" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>254</v>
@@ -5793,10 +5754,10 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="C285" s="1">
         <v>1.0</v>
@@ -5807,10 +5768,10 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="C286" s="1">
         <v>1.0</v>
@@ -5824,10 +5785,10 @@
         <v>267</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C287" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>254</v>
@@ -5835,13 +5796,13 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>269</v>
       </c>
       <c r="C288" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>254</v>
@@ -5849,10 +5810,10 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="C289" s="1">
         <v>1.0</v>
@@ -5863,10 +5824,10 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="C290" s="1">
         <v>1.0</v>
@@ -5880,10 +5841,10 @@
         <v>271</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C291" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>254</v>
@@ -5891,13 +5852,13 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C292" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>254</v>
@@ -5905,10 +5866,10 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="C293" s="1">
         <v>1.0</v>
@@ -5919,10 +5880,10 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="C294" s="1">
         <v>1.0</v>
@@ -5933,15 +5894,29 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C295" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B295" s="2" t="s">
+      <c r="B296" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C295" s="1">
+      <c r="C296" s="1">
         <v>5.0</v>
       </c>
-      <c r="D295" s="1" t="s">
+      <c r="D296" s="1" t="s">
         <v>254</v>
       </c>
     </row>
